--- a/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
+++ b/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="476">
   <si>
     <t>CAM_ID</t>
   </si>
@@ -761,9 +761,6 @@
     <t>212</t>
   </si>
   <si>
-    <t>213</t>
-  </si>
-  <si>
     <t>214</t>
   </si>
   <si>
@@ -1410,9 +1407,6 @@
   </si>
   <si>
     <t>65772f25af9bdd7c3ae47af5</t>
-  </si>
-  <si>
-    <t>65304e8a630196510c79f7df</t>
   </si>
   <si>
     <t>652d2a7b11d97787933195c6</t>
@@ -1636,10 +1630,10 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" t="n">
         <v>0.16666666666666666</v>
@@ -1663,7 +1657,7 @@
         <v>0.5540657439446367</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6639416425497979</v>
+        <v>0.663941642549798</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -1765,10 +1759,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" t="n">
         <v>0.15384615384615385</v>
@@ -1792,7 +1786,7 @@
         <v>0.5549242424242424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6239337138699429</v>
+        <v>0.6239337138699431</v>
       </c>
       <c r="L3" t="n">
         <v>1.4137931034482758</v>
@@ -1894,10 +1888,10 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" t="n">
         <v>-0.4166666666666667</v>
@@ -1921,7 +1915,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548826</v>
+        <v>0.5123849057548827</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -2023,10 +2017,10 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" t="n">
         <v>-0.07692307692307693</v>
@@ -2050,7 +2044,7 @@
         <v>0.571969696969697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689883197538612</v>
+        <v>0.5689883197538613</v>
       </c>
       <c r="L5" t="n">
         <v>1.6956521739130435</v>
@@ -2152,10 +2146,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" t="n">
         <v>0.15384615384615385</v>
@@ -2179,7 +2173,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535708</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -2281,10 +2275,10 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" t="n">
         <v>0.7692307692307693</v>
@@ -2410,10 +2404,10 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" t="n">
         <v>-0.2857142857142857</v>
@@ -2437,7 +2431,7 @@
         <v>0.48422090729783035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.524078171578996</v>
+        <v>0.5240781715789962</v>
       </c>
       <c r="L8" t="n">
         <v>3.0526315789473686</v>
@@ -2539,10 +2533,10 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" t="n">
         <v>-0.2857142857142857</v>
@@ -2566,7 +2560,7 @@
         <v>0.5157790927021696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6716332265208823</v>
+        <v>0.6716332265208821</v>
       </c>
       <c r="L9" t="n">
         <v>1.6071428571428572</v>
@@ -2668,10 +2662,10 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" t="n">
         <v>-0.4</v>
@@ -2695,7 +2689,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7311064553717901</v>
+        <v>0.7311064553717898</v>
       </c>
       <c r="L10" t="n">
         <v>1.5833333333333333</v>
@@ -2797,10 +2791,10 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" t="n">
         <v>0.45454545454545453</v>
@@ -2824,7 +2818,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734858</v>
+        <v>0.5463907883734856</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -2926,10 +2920,10 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -3055,10 +3049,10 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D13" t="n">
         <v>-0.14285714285714285</v>
@@ -3184,10 +3178,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D14" t="n">
         <v>0.38461538461538464</v>
@@ -3211,7 +3205,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L14" t="n">
         <v>2.5416666666666665</v>
@@ -3313,10 +3307,10 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" t="n">
         <v>-0.6</v>
@@ -3340,7 +3334,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6485997359573067</v>
+        <v>0.6485997359573066</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -3442,10 +3436,10 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D16" t="n">
         <v>0.6428571428571429</v>
@@ -3469,7 +3463,7 @@
         <v>0.5088757396449705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666137163722715</v>
+        <v>0.6666137163722711</v>
       </c>
       <c r="L16" t="n">
         <v>1.380952380952381</v>
@@ -3571,10 +3565,10 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -3598,7 +3592,7 @@
         <v>0.7314814814814815</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7431858936322675</v>
+        <v>0.7431858936322674</v>
       </c>
       <c r="L17" t="n">
         <v>2.9375</v>
@@ -3700,10 +3694,10 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" t="n">
         <v>-0.15384615384615385</v>
@@ -3727,7 +3721,7 @@
         <v>0.592382154882155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6336532010599384</v>
+        <v>0.6336532010599386</v>
       </c>
       <c r="L18" t="n">
         <v>2.225</v>
@@ -3829,10 +3823,10 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" t="n">
         <v>-0.07692307692307693</v>
@@ -3856,7 +3850,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188709</v>
+        <v>0.6589640700188713</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -3958,10 +3952,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" t="n">
         <v>0.23076923076923078</v>
@@ -3985,7 +3979,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344019</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -4087,10 +4081,10 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" t="n">
         <v>-0.15384615384615385</v>
@@ -4216,10 +4210,10 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" t="n">
         <v>0.23076923076923078</v>
@@ -4243,7 +4237,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -4345,10 +4339,10 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" t="n">
         <v>-0.5384615384615384</v>
@@ -4474,10 +4468,10 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" t="n">
         <v>0.16666666666666666</v>
@@ -4603,10 +4597,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" t="n">
         <v>-0.7692307692307693</v>
@@ -4732,10 +4726,10 @@
         <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" t="n">
         <v>0.45454545454545453</v>
@@ -4759,7 +4753,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5463907883734858</v>
+        <v>0.5463907883734859</v>
       </c>
       <c r="L26" t="n">
         <v>2.25</v>
@@ -4861,10 +4855,10 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D27" t="n">
         <v>0.21052631578947367</v>
@@ -4888,7 +4882,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655474</v>
+        <v>0.7790594869655476</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -4990,10 +4984,10 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D28" t="n">
         <v>0.38461538461538464</v>
@@ -5017,7 +5011,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5975282977967518</v>
+        <v>0.5975282977967519</v>
       </c>
       <c r="L28" t="n">
         <v>2.739130434782609</v>
@@ -5119,10 +5113,10 @@
         <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" t="n">
         <v>0.09090909090909091</v>
@@ -5146,7 +5140,7 @@
         <v>0.5955555555555555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6557866581553322</v>
+        <v>0.6557866581553324</v>
       </c>
       <c r="L29" t="n">
         <v>1.3846153846153846</v>
@@ -5248,10 +5242,10 @@
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
         <v>-0.5333333333333333</v>
@@ -5275,7 +5269,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7670059672747959</v>
+        <v>0.7670059672747956</v>
       </c>
       <c r="L30" t="n">
         <v>1.4615384615384615</v>
@@ -5377,10 +5371,10 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D31" t="n">
         <v>0.3076923076923077</v>
@@ -5404,7 +5398,7 @@
         <v>0.5669191919191919</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6860648098775028</v>
+        <v>0.6860648098775033</v>
       </c>
       <c r="L31" t="n">
         <v>1.619047619047619</v>
@@ -5506,10 +5500,10 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" t="n">
         <v>1.0833333333333333</v>
@@ -5533,7 +5527,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5879745215473355</v>
+        <v>0.5879745215473362</v>
       </c>
       <c r="L32" t="n">
         <v>1.6521739130434783</v>
@@ -5635,10 +5629,10 @@
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D33" t="n">
         <v>0.42857142857142855</v>
@@ -5662,7 +5656,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044619</v>
+        <v>0.7344728262044616</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -5764,10 +5758,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D34" t="n">
         <v>-2.230769230769231</v>
@@ -5893,10 +5887,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" t="n">
         <v>0.5555555555555556</v>
@@ -5920,7 +5914,7 @@
         <v>0.6743079584775087</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7165282052231963</v>
+        <v>0.7165282052231965</v>
       </c>
       <c r="L35" t="n">
         <v>3.311111111111111</v>
@@ -6022,10 +6016,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -6049,7 +6043,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7706074640207394</v>
+        <v>0.7706074640207379</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -6151,10 +6145,10 @@
         <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
@@ -6280,10 +6274,10 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D38" t="n">
         <v>0.1</v>
@@ -6307,7 +6301,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5275444087384661</v>
+        <v>0.5275444087384659</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -6409,10 +6403,10 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D39" t="n">
         <v>-0.07692307692307693</v>
@@ -6436,7 +6430,7 @@
         <v>0.7247474747474747</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7092774324386931</v>
+        <v>0.709277432438693</v>
       </c>
       <c r="L39" t="n">
         <v>2.8947368421052633</v>
@@ -6538,10 +6532,10 @@
         <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D40" t="n">
         <v>-0.26666666666666666</v>
@@ -6565,7 +6559,7 @@
         <v>0.6043956043956044</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6192501947457054</v>
+        <v>0.6192501947457051</v>
       </c>
       <c r="L40" t="n">
         <v>2.875</v>
@@ -6667,10 +6661,10 @@
         <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D41" t="n">
         <v>-0.05263157894736842</v>
@@ -6694,7 +6688,7 @@
         <v>0.5119825708061002</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6982375941135748</v>
+        <v>0.6982375941135741</v>
       </c>
       <c r="L41" t="n">
         <v>1.8387096774193548</v>
@@ -6796,10 +6790,10 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D42" t="n">
         <v>0.18181818181818182</v>
@@ -6823,7 +6817,7 @@
         <v>0.5688888888888889</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6680090650144588</v>
+        <v>0.6680090650144592</v>
       </c>
       <c r="L42" t="n">
         <v>2.1875</v>
@@ -6925,10 +6919,10 @@
         <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D43" t="n">
         <v>0.0</v>
@@ -6952,7 +6946,7 @@
         <v>0.15222222222222223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.36002364913831847</v>
+        <v>0.3600236491383181</v>
       </c>
       <c r="L43" t="n">
         <v>3.688888888888889</v>
@@ -7054,10 +7048,10 @@
         <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D44" t="n">
         <v>-1.0</v>
@@ -7183,10 +7177,10 @@
         <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D45" t="n">
         <v>-0.08333333333333333</v>
@@ -7210,7 +7204,7 @@
         <v>0.5305785123966942</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6239577903951073</v>
+        <v>0.6239577903951071</v>
       </c>
       <c r="L45" t="n">
         <v>4.086956521739131</v>
@@ -7312,10 +7306,10 @@
         <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D46" t="n">
         <v>0.15384615384615385</v>
@@ -7339,7 +7333,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L46" t="n">
         <v>1.8823529411764706</v>
@@ -7441,10 +7435,10 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D47" t="n">
         <v>-0.35714285714285715</v>
@@ -7468,7 +7462,7 @@
         <v>0.6232741617357002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.712478473382233</v>
+        <v>0.7124784733822332</v>
       </c>
       <c r="L47" t="n">
         <v>1.4090909090909092</v>
@@ -7570,10 +7564,10 @@
         <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" t="n">
         <v>-0.4</v>
@@ -7699,10 +7693,10 @@
         <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D49" t="n">
         <v>0.2857142857142857</v>
@@ -7726,7 +7720,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5814868443938439</v>
+        <v>0.5814868443938436</v>
       </c>
       <c r="L49" t="n">
         <v>2.6666666666666665</v>
@@ -7828,10 +7822,10 @@
         <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D50" t="n">
         <v>-0.3076923076923077</v>
@@ -7855,7 +7849,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L50" t="n">
         <v>2.230769230769231</v>
@@ -7957,10 +7951,10 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D51" t="n">
         <v>0.15384615384615385</v>
@@ -8086,10 +8080,10 @@
         <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D52" t="n">
         <v>0.07692307692307693</v>
@@ -8113,7 +8107,7 @@
         <v>0.427651515151515</v>
       </c>
       <c r="K52" t="n">
-        <v>0.577984660342477</v>
+        <v>0.5779846603424769</v>
       </c>
       <c r="L52" t="n">
         <v>2.761904761904762</v>
@@ -8215,10 +8209,10 @@
         <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D53" t="n">
         <v>0.0</v>
@@ -8242,7 +8236,7 @@
         <v>0.41179496489953993</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6884792154861872</v>
+        <v>0.6884792154861873</v>
       </c>
       <c r="L53" t="n">
         <v>3.073394495412844</v>
@@ -8344,10 +8338,10 @@
         <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D54" t="n">
         <v>0.8461538461538461</v>
@@ -8371,7 +8365,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7503994041344023</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L54" t="n">
         <v>2.0833333333333335</v>
@@ -8473,10 +8467,10 @@
         <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D55" t="n">
         <v>0.0</v>
@@ -8500,7 +8494,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.46634927952018695</v>
+        <v>0.46634927952018657</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -8602,10 +8596,10 @@
         <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D56" t="n">
         <v>-0.18181818181818182</v>
@@ -8629,7 +8623,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.536156096817399</v>
+        <v>0.5361560968173984</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -8731,10 +8725,10 @@
         <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57" t="n">
         <v>0.0</v>
@@ -8758,7 +8752,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225931</v>
+        <v>0.7319858598225933</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -8860,10 +8854,10 @@
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D58" t="n">
         <v>0.0</v>
@@ -8989,10 +8983,10 @@
         <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D59" t="n">
         <v>-0.18181818181818182</v>
@@ -9016,7 +9010,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5463907883734858</v>
+        <v>0.5463907883734856</v>
       </c>
       <c r="L59" t="n">
         <v>2.6666666666666665</v>
@@ -9118,10 +9112,10 @@
         <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D60" t="n">
         <v>-0.3076923076923077</v>
@@ -9145,7 +9139,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L60" t="n">
         <v>3.2142857142857144</v>
@@ -9247,10 +9241,10 @@
         <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D61" t="n">
         <v>0.26666666666666666</v>
@@ -9376,10 +9370,10 @@
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D62" t="n">
         <v>0.21428571428571427</v>
@@ -9403,7 +9397,7 @@
         <v>0.47008547008547</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6940693357949076</v>
+        <v>0.6940693357949078</v>
       </c>
       <c r="L62" t="n">
         <v>1.6</v>
@@ -9505,10 +9499,10 @@
         <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D63" t="n">
         <v>-0.23076923076923078</v>
@@ -9532,7 +9526,7 @@
         <v>0.5631313131313131</v>
       </c>
       <c r="K63" t="n">
-        <v>0.6715310873992876</v>
+        <v>0.6715310873992878</v>
       </c>
       <c r="L63" t="n">
         <v>1.7142857142857142</v>
@@ -9634,10 +9628,10 @@
         <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D64" t="n">
         <v>-0.46153846153846156</v>
@@ -9661,7 +9655,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.50119246234378</v>
+        <v>0.5011924623437802</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -9763,10 +9757,10 @@
         <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D65" t="n">
         <v>-0.18181818181818182</v>
@@ -9790,7 +9784,7 @@
         <v>0.6711111111111111</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7291671489030341</v>
+        <v>0.7291671489030339</v>
       </c>
       <c r="L65" t="n">
         <v>2.1</v>
@@ -9892,10 +9886,10 @@
         <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D66" t="n">
         <v>0.5384615384615384</v>
@@ -10021,10 +10015,10 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D67" t="n">
         <v>0.45454545454545453</v>
@@ -10048,7 +10042,7 @@
         <v>0.4190778533635676</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6431167773064634</v>
+        <v>0.6431167773064641</v>
       </c>
       <c r="L67" t="n">
         <v>5.260416666666667</v>
@@ -10150,10 +10144,10 @@
         <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D68" t="n">
         <v>0.15384615384615385</v>
@@ -10177,7 +10171,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.58767512035357</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -10279,10 +10273,10 @@
         <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D69" t="n">
         <v>0.2857142857142857</v>
@@ -10306,7 +10300,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5941641498719118</v>
+        <v>0.594164149871912</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -10408,10 +10402,10 @@
         <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D70" t="n">
         <v>0.0</v>
@@ -10435,7 +10429,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413056</v>
+        <v>0.6533878071413058</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -10537,10 +10531,10 @@
         <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D71" t="n">
         <v>0.15384615384615385</v>
@@ -10564,7 +10558,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7072557308151464</v>
+        <v>0.7072557308151466</v>
       </c>
       <c r="L71" t="n">
         <v>2.138888888888889</v>
@@ -10666,10 +10660,10 @@
         <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D72" t="n">
         <v>0.9375</v>
@@ -10693,7 +10687,7 @@
         <v>0.3380801209372638</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5993148357115514</v>
+        <v>0.5993148357115515</v>
       </c>
       <c r="L72" t="n">
         <v>3.3255813953488373</v>
@@ -10795,10 +10789,10 @@
         <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D73" t="n">
         <v>-0.2857142857142857</v>
@@ -10822,7 +10816,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6834720486951738</v>
+        <v>0.6834720486951736</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -10924,10 +10918,10 @@
         <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D74" t="n">
         <v>0.0</v>
@@ -10951,7 +10945,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139013</v>
+        <v>0.6724191809139035</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -11053,10 +11047,10 @@
         <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D75" t="n">
         <v>-0.15384615384615385</v>
@@ -11080,7 +11074,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7204348544233161</v>
+        <v>0.7204348544233159</v>
       </c>
       <c r="L75" t="n">
         <v>3.217391304347826</v>
@@ -11182,10 +11176,10 @@
         <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D76" t="n">
         <v>0.08333333333333333</v>
@@ -11209,7 +11203,7 @@
         <v>0.6016528925619835</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6070742359959975</v>
+        <v>0.6070742359959973</v>
       </c>
       <c r="L76" t="n">
         <v>3.6285714285714286</v>
@@ -11311,10 +11305,10 @@
         <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D77" t="n">
         <v>-0.38461538461538464</v>
@@ -11338,7 +11332,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7348667266172739</v>
+        <v>0.7348667266172743</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -11440,10 +11434,10 @@
         <v>120</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D78" t="n">
         <v>0.5555555555555556</v>
@@ -11467,7 +11461,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795658</v>
+        <v>0.6977956124795655</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -11569,10 +11563,10 @@
         <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D79" t="n">
         <v>0.26666666666666666</v>
@@ -11596,7 +11590,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340572</v>
+        <v>0.6122818944340568</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -11698,10 +11692,10 @@
         <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D80" t="n">
         <v>-0.6666666666666666</v>
@@ -11725,7 +11719,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K80" t="n">
-        <v>0.719448997239409</v>
+        <v>0.7194489972394091</v>
       </c>
       <c r="L80" t="n">
         <v>1.4210526315789473</v>
@@ -11827,10 +11821,10 @@
         <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D81" t="n">
         <v>-0.17647058823529413</v>
@@ -11854,7 +11848,7 @@
         <v>0.6578125</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6947587760390113</v>
+        <v>0.6947587760390115</v>
       </c>
       <c r="L81" t="n">
         <v>1.32</v>
@@ -11956,10 +11950,10 @@
         <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D82" t="n">
         <v>0.07692307692307693</v>
@@ -11983,7 +11977,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5876751203535708</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L82" t="n">
         <v>1.5714285714285714</v>
@@ -12085,10 +12079,10 @@
         <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D83" t="n">
         <v>0.23076923076923078</v>
@@ -12112,7 +12106,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6409540843727304</v>
+        <v>0.640954084372731</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -12214,10 +12208,10 @@
         <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D84" t="n">
         <v>0.38461538461538464</v>
@@ -12241,7 +12235,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K84" t="n">
-        <v>0.6310514720678655</v>
+        <v>0.6310514720678653</v>
       </c>
       <c r="L84" t="n">
         <v>2.5283018867924527</v>
@@ -12343,10 +12337,10 @@
         <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D85" t="n">
         <v>0.6153846153846154</v>
@@ -12370,7 +12364,7 @@
         <v>0.6029040404040404</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6568956134016288</v>
+        <v>0.6568956134016283</v>
       </c>
       <c r="L85" t="n">
         <v>1.8461538461538463</v>
@@ -12472,10 +12466,10 @@
         <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D86" t="n">
         <v>0.0</v>
@@ -12499,7 +12493,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5876751203535701</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L86" t="n">
         <v>2.8</v>
@@ -12601,10 +12595,10 @@
         <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D87" t="n">
         <v>-0.46153846153846156</v>
@@ -12730,10 +12724,10 @@
         <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D88" t="n">
         <v>0.10526315789473684</v>
@@ -12757,7 +12751,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.736709323304264</v>
+        <v>0.7367093233042645</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -12859,10 +12853,10 @@
         <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D89" t="n">
         <v>-0.4666666666666667</v>
@@ -12988,10 +12982,10 @@
         <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D90" t="n">
         <v>0.0</v>
@@ -13015,7 +13009,7 @@
         <v>0.6445707070707071</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5602897572581601</v>
+        <v>0.5602897572581599</v>
       </c>
       <c r="L90" t="n">
         <v>2.62</v>
@@ -13117,10 +13111,10 @@
         <v>133</v>
       </c>
       <c r="B91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D91" t="n">
         <v>0.46153846153846156</v>
@@ -13246,10 +13240,10 @@
         <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D92" t="n">
         <v>0.0</v>
@@ -13273,7 +13267,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283307</v>
+        <v>0.5133587615283309</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -13375,10 +13369,10 @@
         <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D93" t="n">
         <v>0.8461538461538461</v>
@@ -13504,10 +13498,10 @@
         <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D94" t="n">
         <v>0.2631578947368421</v>
@@ -13531,7 +13525,7 @@
         <v>0.6201888162672476</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8035000828379488</v>
+        <v>0.803500082837949</v>
       </c>
       <c r="L94" t="n">
         <v>3.0434782608695654</v>
@@ -13633,10 +13627,10 @@
         <v>137</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D95" t="n">
         <v>-1.1333333333333333</v>
@@ -13762,10 +13756,10 @@
         <v>138</v>
       </c>
       <c r="B96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D96" t="n">
         <v>0.23076923076923078</v>
@@ -13789,7 +13783,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836967</v>
+        <v>0.6367668552836969</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -13891,10 +13885,10 @@
         <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D97" t="n">
         <v>0.7333333333333333</v>
@@ -13918,7 +13912,7 @@
         <v>0.5388540031397174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6698156988970377</v>
+        <v>0.6698156988970376</v>
       </c>
       <c r="L97" t="n">
         <v>2.0833333333333335</v>
@@ -14020,10 +14014,10 @@
         <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D98" t="n">
         <v>0.6923076923076923</v>
@@ -14047,7 +14041,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7366277355810055</v>
+        <v>0.7366277355810056</v>
       </c>
       <c r="L98" t="n">
         <v>3.3333333333333335</v>
@@ -14149,10 +14143,10 @@
         <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D99" t="n">
         <v>0.07692307692307693</v>
@@ -14176,7 +14170,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7333452858146049</v>
+        <v>0.7333452858146047</v>
       </c>
       <c r="L99" t="n">
         <v>1.6206896551724137</v>
@@ -14278,10 +14272,10 @@
         <v>142</v>
       </c>
       <c r="B100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D100" t="n">
         <v>0.6363636363636364</v>
@@ -14305,7 +14299,7 @@
         <v>0.46111111111111114</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5780234735063571</v>
+        <v>0.5780234735063566</v>
       </c>
       <c r="L100" t="n">
         <v>1.608695652173913</v>
@@ -14407,10 +14401,10 @@
         <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D101" t="n">
         <v>0.23076923076923078</v>
@@ -14434,7 +14428,7 @@
         <v>0.6957070707070707</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6952215599621799</v>
+        <v>0.6952215599621803</v>
       </c>
       <c r="L101" t="n">
         <v>1.85</v>
@@ -14536,10 +14530,10 @@
         <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D102" t="n">
         <v>0.3076923076923077</v>
@@ -14563,7 +14557,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5575331000518124</v>
+        <v>0.5575331000518123</v>
       </c>
       <c r="L102" t="n">
         <v>2.3157894736842106</v>
@@ -14665,10 +14659,10 @@
         <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D103" t="n">
         <v>0.75</v>
@@ -14692,7 +14686,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525608</v>
+        <v>0.7636558774525599</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -14794,10 +14788,10 @@
         <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C104" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D104" t="n">
         <v>0.0625</v>
@@ -14821,7 +14815,7 @@
         <v>0.10858956916099773</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3172448330481045</v>
+        <v>0.3172448330481044</v>
       </c>
       <c r="L104" t="n">
         <v>4.586466165413534</v>
@@ -14923,10 +14917,10 @@
         <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C105" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D105" t="n">
         <v>0.0</v>
@@ -15050,10 +15044,10 @@
         <v>148</v>
       </c>
       <c r="B106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D106" t="n">
         <v>0.9375</v>
@@ -15077,7 +15071,7 @@
         <v>0.45523809523809516</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6740935269973214</v>
+        <v>0.674093526997322</v>
       </c>
       <c r="L106" t="n">
         <v>2.6444444444444444</v>
@@ -15179,10 +15173,10 @@
         <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C107" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D107" t="n">
         <v>0.6153846153846154</v>
@@ -15308,10 +15302,10 @@
         <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D108" t="n">
         <v>-0.125</v>
@@ -15437,10 +15431,10 @@
         <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C109" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D109" t="n">
         <v>0.23076923076923078</v>
@@ -15464,7 +15458,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.663551289557334</v>
+        <v>0.6635512895573344</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -15566,10 +15560,10 @@
         <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D110" t="n">
         <v>1.3076923076923077</v>
@@ -15593,7 +15587,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.752317296489506</v>
+        <v>0.7523172964895064</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -15695,10 +15689,10 @@
         <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D111" t="n">
         <v>0.15384615384615385</v>
@@ -15722,7 +15716,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6496922600715601</v>
+        <v>0.6496922600715599</v>
       </c>
       <c r="L111" t="n">
         <v>2.4242424242424243</v>
@@ -15824,10 +15818,10 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C112" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D112" t="n">
         <v>-0.5384615384615384</v>
@@ -15851,7 +15845,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -15953,10 +15947,10 @@
         <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C113" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D113" t="n">
         <v>0.9230769230769231</v>
@@ -15980,7 +15974,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5586914518729814</v>
+        <v>0.5586914518729811</v>
       </c>
       <c r="L113" t="n">
         <v>2.1846153846153844</v>
@@ -16082,10 +16076,10 @@
         <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C114" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D114" t="n">
         <v>-0.38461538461538464</v>
@@ -16109,7 +16103,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -16211,10 +16205,10 @@
         <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D115" t="n">
         <v>0.6153846153846154</v>
@@ -16340,10 +16334,10 @@
         <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D116" t="n">
         <v>0.5384615384615384</v>
@@ -16367,7 +16361,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5739699008713615</v>
+        <v>0.5739699008713616</v>
       </c>
       <c r="L116" t="n">
         <v>2.4</v>
@@ -16469,10 +16463,10 @@
         <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C117" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D117" t="n">
         <v>-0.1</v>
@@ -16496,7 +16490,7 @@
         <v>0.32407407407407407</v>
       </c>
       <c r="K117" t="n">
-        <v>0.46094775278359257</v>
+        <v>0.4609477527835928</v>
       </c>
       <c r="L117" t="n">
         <v>1.4444444444444444</v>
@@ -16598,10 +16592,10 @@
         <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D118" t="n">
         <v>0.15384615384615385</v>
@@ -16625,7 +16619,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229595</v>
+        <v>0.7146893795229593</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -16727,10 +16721,10 @@
         <v>161</v>
       </c>
       <c r="B119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D119" t="n">
         <v>0.0</v>
@@ -16856,10 +16850,10 @@
         <v>162</v>
       </c>
       <c r="B120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D120" t="n">
         <v>-0.3076923076923077</v>
@@ -16985,10 +16979,10 @@
         <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D121" t="n">
         <v>0.21428571428571427</v>
@@ -17012,7 +17006,7 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6452581025770661</v>
+        <v>0.6452581025770671</v>
       </c>
       <c r="L121" t="n">
         <v>2.6</v>
@@ -17114,10 +17108,10 @@
         <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D122" t="n">
         <v>0.034482758620689655</v>
@@ -17141,7 +17135,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7551377062685428</v>
+        <v>0.7551377062685432</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -17243,10 +17237,10 @@
         <v>165</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C123" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D123" t="n">
         <v>0.25</v>
@@ -17270,7 +17264,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6381119018901551</v>
+        <v>0.6381119018901549</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -17372,10 +17366,10 @@
         <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C124" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D124" t="n">
         <v>-0.15384615384615385</v>
@@ -17399,7 +17393,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L124" t="n">
         <v>1.5714285714285714</v>
@@ -17501,10 +17495,10 @@
         <v>167</v>
       </c>
       <c r="B125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D125" t="n">
         <v>0.6363636363636364</v>
@@ -17528,7 +17522,7 @@
         <v>0.5066666666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5816584263908315</v>
+        <v>0.5816584263908309</v>
       </c>
       <c r="L125" t="n">
         <v>2.2916666666666665</v>
@@ -17630,10 +17624,10 @@
         <v>168</v>
       </c>
       <c r="B126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D126" t="n">
         <v>0.0</v>
@@ -17657,7 +17651,7 @@
         <v>0.6073232323232324</v>
       </c>
       <c r="K126" t="n">
-        <v>0.6509486017579401</v>
+        <v>0.6509486017579396</v>
       </c>
       <c r="L126" t="n">
         <v>1.6470588235294117</v>
@@ -17759,10 +17753,10 @@
         <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C127" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D127" t="n">
         <v>-0.2</v>
@@ -17888,10 +17882,10 @@
         <v>170</v>
       </c>
       <c r="B128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C128" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D128" t="n">
         <v>-0.05</v>
@@ -18017,10 +18011,10 @@
         <v>171</v>
       </c>
       <c r="B129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D129" t="n">
         <v>0.5</v>
@@ -18044,7 +18038,7 @@
         <v>0.7268244575936884</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7829550888228454</v>
+        <v>0.7829550888228453</v>
       </c>
       <c r="L129" t="n">
         <v>1.6285714285714286</v>
@@ -18146,10 +18140,10 @@
         <v>172</v>
       </c>
       <c r="B130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D130" t="n">
         <v>0.8461538461538461</v>
@@ -18275,10 +18269,10 @@
         <v>173</v>
       </c>
       <c r="B131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D131" t="n">
         <v>1.2</v>
@@ -18302,7 +18296,7 @@
         <v>0.45524691358024694</v>
       </c>
       <c r="K131" t="n">
-        <v>0.49563515391011803</v>
+        <v>0.4956351539101179</v>
       </c>
       <c r="L131" t="n">
         <v>3.5714285714285716</v>
@@ -18404,10 +18398,10 @@
         <v>174</v>
       </c>
       <c r="B132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D132" t="n">
         <v>0.1</v>
@@ -18431,7 +18425,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.570666203834801</v>
+        <v>0.5706662038348006</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -18533,10 +18527,10 @@
         <v>175</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C133" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D133" t="n">
         <v>1.4166666666666667</v>
@@ -18560,7 +18554,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.587974521547336</v>
+        <v>0.5879745215473364</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -18662,10 +18656,10 @@
         <v>176</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C134" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D134" t="n">
         <v>0.0625</v>
@@ -18791,10 +18785,10 @@
         <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C135" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D135" t="n">
         <v>1.0</v>
@@ -18818,7 +18812,7 @@
         <v>0.7229199372056515</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7085449778358615</v>
+        <v>0.7085449778358618</v>
       </c>
       <c r="L135" t="n">
         <v>3.2708333333333335</v>
@@ -18920,10 +18914,10 @@
         <v>178</v>
       </c>
       <c r="B136" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C136" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D136" t="n">
         <v>0.7692307692307693</v>
@@ -19049,10 +19043,10 @@
         <v>179</v>
       </c>
       <c r="B137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C137" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D137" t="n">
         <v>-0.1</v>
@@ -19076,7 +19070,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.45203440887737667</v>
+        <v>0.4520344088773761</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -19178,10 +19172,10 @@
         <v>180</v>
       </c>
       <c r="B138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D138" t="n">
         <v>0.25</v>
@@ -19205,7 +19199,7 @@
         <v>0.566984126984127</v>
       </c>
       <c r="K138" t="n">
-        <v>0.732030392526777</v>
+        <v>0.7320303925267773</v>
       </c>
       <c r="L138" t="n">
         <v>3.1666666666666665</v>
@@ -19307,10 +19301,10 @@
         <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C139" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D139" t="n">
         <v>0.07692307692307693</v>
@@ -19334,7 +19328,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K139" t="n">
-        <v>0.678129225677481</v>
+        <v>0.6781292256774815</v>
       </c>
       <c r="L139" t="n">
         <v>3.130434782608696</v>
@@ -19436,10 +19430,10 @@
         <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D140" t="n">
         <v>0.23076923076923078</v>
@@ -19463,7 +19457,7 @@
         <v>0.44002525252525254</v>
       </c>
       <c r="K140" t="n">
-        <v>0.631631308167427</v>
+        <v>0.6316313081674267</v>
       </c>
       <c r="L140" t="n">
         <v>2.257142857142857</v>
@@ -19565,10 +19559,10 @@
         <v>183</v>
       </c>
       <c r="B141" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C141" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D141" t="n">
         <v>0.6428571428571429</v>
@@ -19592,7 +19586,7 @@
         <v>0.6222879684418146</v>
       </c>
       <c r="K141" t="n">
-        <v>0.689246312653658</v>
+        <v>0.6892463126536583</v>
       </c>
       <c r="L141" t="n">
         <v>4.574468085106383</v>
@@ -19694,10 +19688,10 @@
         <v>184</v>
       </c>
       <c r="B142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C142" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D142" t="n">
         <v>-0.15384615384615385</v>
@@ -19721,7 +19715,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K142" t="n">
-        <v>0.608472649456382</v>
+        <v>0.6084726494563819</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -19823,10 +19817,10 @@
         <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C143" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D143" t="n">
         <v>0.46153846153846156</v>
@@ -19850,7 +19844,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K143" t="n">
-        <v>0.6749707165392148</v>
+        <v>0.6749707165392151</v>
       </c>
       <c r="L143" t="n">
         <v>2.4</v>
@@ -19952,10 +19946,10 @@
         <v>186</v>
       </c>
       <c r="B144" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C144" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D144" t="n">
         <v>-0.07142857142857142</v>
@@ -20081,10 +20075,10 @@
         <v>187</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D145" t="n">
         <v>1.5</v>
@@ -20206,10 +20200,10 @@
         <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C146" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D146" t="n">
         <v>-0.17647058823529413</v>
@@ -20233,7 +20227,7 @@
         <v>0.5901041666666667</v>
       </c>
       <c r="K146" t="n">
-        <v>0.5875468512296668</v>
+        <v>0.587546851229667</v>
       </c>
       <c r="L146" t="n">
         <v>3.3137254901960786</v>
@@ -20335,10 +20329,10 @@
         <v>189</v>
       </c>
       <c r="B147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D147" t="n">
         <v>0.23076923076923078</v>
@@ -20362,7 +20356,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L147" t="n">
         <v>1.619047619047619</v>
@@ -20464,10 +20458,10 @@
         <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C148" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D148" t="n">
         <v>-0.13333333333333333</v>
@@ -20491,7 +20485,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K148" t="n">
-        <v>0.6575429501898367</v>
+        <v>0.6575429501898361</v>
       </c>
       <c r="L148" t="n">
         <v>3.15</v>
@@ -20593,10 +20587,10 @@
         <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C149" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D149" t="n">
         <v>-0.3</v>
@@ -20620,7 +20614,7 @@
         <v>0.4660493827160494</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5348559786120484</v>
+        <v>0.5348559786120486</v>
       </c>
       <c r="L149" t="n">
         <v>1.3571428571428572</v>
@@ -20722,10 +20716,10 @@
         <v>192</v>
       </c>
       <c r="B150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C150" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D150" t="n">
         <v>-0.35294117647058826</v>
@@ -20851,10 +20845,10 @@
         <v>193</v>
       </c>
       <c r="B151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D151" t="n">
         <v>-0.42857142857142855</v>
@@ -20980,10 +20974,10 @@
         <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D152" t="n">
         <v>0.6666666666666666</v>
@@ -21109,10 +21103,10 @@
         <v>195</v>
       </c>
       <c r="B153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C153" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D153" t="n">
         <v>0.3</v>
@@ -21136,7 +21130,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K153" t="n">
-        <v>0.6624524600823032</v>
+        <v>0.662452460082303</v>
       </c>
       <c r="L153" t="n">
         <v>1.5757575757575757</v>
@@ -21234,10 +21228,10 @@
         <v>196</v>
       </c>
       <c r="B154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D154" t="n">
         <v>0.0</v>
@@ -21261,7 +21255,7 @@
         <v>0.5700757575757576</v>
       </c>
       <c r="K154" t="n">
-        <v>0.6520856219376469</v>
+        <v>0.6520856219376466</v>
       </c>
       <c r="L154" t="n">
         <v>3.21875</v>
@@ -21361,10 +21355,10 @@
         <v>197</v>
       </c>
       <c r="B155" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C155" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D155" t="n">
         <v>0.6923076923076923</v>
@@ -21388,7 +21382,7 @@
         <v>0.7209595959595959</v>
       </c>
       <c r="K155" t="n">
-        <v>0.7539578260896126</v>
+        <v>0.7539578260896124</v>
       </c>
       <c r="L155" t="n">
         <v>2.375</v>
@@ -21490,10 +21484,10 @@
         <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C156" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D156" t="n">
         <v>0.07692307692307693</v>
@@ -21517,7 +21511,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6427389230910836</v>
+        <v>0.6427389230910834</v>
       </c>
       <c r="L156" t="n">
         <v>2.1538461538461537</v>
@@ -21619,10 +21613,10 @@
         <v>199</v>
       </c>
       <c r="B157" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C157" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D157" t="n">
         <v>0.36363636363636365</v>
@@ -21748,10 +21742,10 @@
         <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D158" t="n">
         <v>0.15384615384615385</v>
@@ -21775,7 +21769,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5975282977967518</v>
+        <v>0.5975282977967519</v>
       </c>
       <c r="L158" t="n">
         <v>3.5294117647058822</v>
@@ -21877,10 +21871,10 @@
         <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D159" t="n">
         <v>1.2857142857142858</v>
@@ -22006,10 +22000,10 @@
         <v>202</v>
       </c>
       <c r="B160" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C160" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D160" t="n">
         <v>0.5384615384615384</v>
@@ -22033,7 +22027,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L160" t="n">
         <v>1.4</v>
@@ -22135,10 +22129,10 @@
         <v>203</v>
       </c>
       <c r="B161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D161" t="n">
         <v>0.15384615384615385</v>
@@ -22162,7 +22156,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K161" t="n">
-        <v>0.7263315264302914</v>
+        <v>0.7263315264302915</v>
       </c>
       <c r="L161" t="n">
         <v>2.3461538461538463</v>
@@ -22264,10 +22258,10 @@
         <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C162" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D162" t="n">
         <v>0.75</v>
@@ -22291,7 +22285,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K162" t="n">
-        <v>0.6383479422507052</v>
+        <v>0.6383479422507058</v>
       </c>
       <c r="L162" t="n">
         <v>2.933333333333333</v>
@@ -22393,10 +22387,10 @@
         <v>205</v>
       </c>
       <c r="B163" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C163" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D163" t="n">
         <v>-0.4166666666666667</v>
@@ -22420,7 +22414,7 @@
         <v>0.5867768595041323</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6644869838125749</v>
+        <v>0.6644869838125746</v>
       </c>
       <c r="L163" t="n">
         <v>1.5806451612903225</v>
@@ -22522,10 +22516,10 @@
         <v>206</v>
       </c>
       <c r="B164" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C164" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D164" t="n">
         <v>0.14814814814814814</v>
@@ -22549,7 +22543,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6427897696765307</v>
+        <v>0.6427897696765309</v>
       </c>
       <c r="L164" t="n">
         <v>4.3446808510638295</v>
@@ -22651,10 +22645,10 @@
         <v>207</v>
       </c>
       <c r="B165" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C165" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D165" t="n">
         <v>0.15384615384615385</v>
@@ -22780,10 +22774,10 @@
         <v>208</v>
       </c>
       <c r="B166" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C166" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D166" t="n">
         <v>-0.15384615384615385</v>
@@ -22807,7 +22801,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K166" t="n">
-        <v>0.7295283117584035</v>
+        <v>0.7295283117584027</v>
       </c>
       <c r="L166" t="n">
         <v>1.8636363636363635</v>
@@ -22909,10 +22903,10 @@
         <v>209</v>
       </c>
       <c r="B167" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C167" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D167" t="n">
         <v>-0.5454545454545454</v>
@@ -22936,7 +22930,7 @@
         <v>0.44666666666666666</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5138798723099929</v>
+        <v>0.5138798723099932</v>
       </c>
       <c r="L167" t="n">
         <v>1.72</v>
@@ -23038,10 +23032,10 @@
         <v>210</v>
       </c>
       <c r="B168" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C168" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D168" t="n">
         <v>0.38461538461538464</v>
@@ -23167,10 +23161,10 @@
         <v>211</v>
       </c>
       <c r="B169" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C169" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D169" t="n">
         <v>-0.35714285714285715</v>
@@ -23194,7 +23188,7 @@
         <v>0.6055226824457594</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7672855417890352</v>
+        <v>0.7672855417890356</v>
       </c>
       <c r="L169" t="n">
         <v>1.8611111111111112</v>
@@ -23296,10 +23290,10 @@
         <v>212</v>
       </c>
       <c r="B170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D170" t="n">
         <v>0.0</v>
@@ -23323,7 +23317,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K170" t="n">
-        <v>0.43324632030047006</v>
+        <v>0.43324632030046983</v>
       </c>
       <c r="L170" t="n">
         <v>2.1578947368421053</v>
@@ -23423,10 +23417,10 @@
         <v>213</v>
       </c>
       <c r="B171" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C171" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D171" t="n">
         <v>0.3684210526315789</v>
@@ -23450,7 +23444,7 @@
         <v>0.3541273299443234</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5429630923949836</v>
+        <v>0.5429630923949835</v>
       </c>
       <c r="L171" t="n">
         <v>4.90990990990991</v>
@@ -23552,10 +23546,10 @@
         <v>214</v>
       </c>
       <c r="B172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C172" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D172" t="n">
         <v>0.5</v>
@@ -23579,7 +23573,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K172" t="n">
-        <v>0.6833458460264671</v>
+        <v>0.6833458460264668</v>
       </c>
       <c r="L172" t="n">
         <v>1.125</v>
@@ -23681,10 +23675,10 @@
         <v>215</v>
       </c>
       <c r="B173" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C173" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D173" t="n">
         <v>-0.07692307692307693</v>
@@ -23708,7 +23702,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K173" t="n">
-        <v>0.6113783877660214</v>
+        <v>0.611378387766021</v>
       </c>
       <c r="L173" t="n">
         <v>1.105263157894737</v>
@@ -23810,10 +23804,10 @@
         <v>216</v>
       </c>
       <c r="B174" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C174" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D174" t="n">
         <v>0.15384615384615385</v>
@@ -23939,10 +23933,10 @@
         <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C175" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D175" t="n">
         <v>0.9230769230769231</v>
@@ -23966,7 +23960,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6749707165392153</v>
+        <v>0.6749707165392154</v>
       </c>
       <c r="L175" t="n">
         <v>2.5</v>
@@ -24068,10 +24062,10 @@
         <v>218</v>
       </c>
       <c r="B176" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C176" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D176" t="n">
         <v>0.0</v>
@@ -24197,10 +24191,10 @@
         <v>219</v>
       </c>
       <c r="B177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C177" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D177" t="n">
         <v>0.9230769230769231</v>
@@ -24224,7 +24218,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K177" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L177" t="n">
         <v>3.8666666666666667</v>
@@ -24326,10 +24320,10 @@
         <v>220</v>
       </c>
       <c r="B178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D178" t="n">
         <v>0.23076923076923078</v>
@@ -24353,7 +24347,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7437212953676031</v>
+        <v>0.7437212953676028</v>
       </c>
       <c r="L178" t="n">
         <v>1.8518518518518519</v>
@@ -24455,10 +24449,10 @@
         <v>221</v>
       </c>
       <c r="B179" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C179" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D179" t="n">
         <v>0.35714285714285715</v>
@@ -24584,10 +24578,10 @@
         <v>222</v>
       </c>
       <c r="B180" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C180" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D180" t="n">
         <v>0.3</v>
@@ -24611,7 +24605,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K180" t="n">
-        <v>0.6536855299290218</v>
+        <v>0.653685529929022</v>
       </c>
       <c r="L180" t="n">
         <v>1.4375</v>
@@ -24713,10 +24707,10 @@
         <v>223</v>
       </c>
       <c r="B181" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C181" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D181" t="n">
         <v>0.42857142857142855</v>
@@ -24740,7 +24734,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K181" t="n">
-        <v>0.6247556789684462</v>
+        <v>0.6247556789684461</v>
       </c>
       <c r="L181" t="n">
         <v>3.36</v>
@@ -24842,10 +24836,10 @@
         <v>224</v>
       </c>
       <c r="B182" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C182" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D182" t="n">
         <v>-0.08333333333333333</v>
@@ -24869,7 +24863,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6848446400614063</v>
+        <v>0.6848446400614066</v>
       </c>
       <c r="L182" t="n">
         <v>1.4210526315789473</v>
@@ -24971,10 +24965,10 @@
         <v>225</v>
       </c>
       <c r="B183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D183" t="n">
         <v>0.07692307692307693</v>
@@ -24998,7 +24992,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K183" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L183" t="n">
         <v>1.6470588235294117</v>
@@ -25100,10 +25094,10 @@
         <v>226</v>
       </c>
       <c r="B184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D184" t="n">
         <v>-0.23529411764705882</v>
@@ -25229,10 +25223,10 @@
         <v>227</v>
       </c>
       <c r="B185" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C185" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D185" t="n">
         <v>0.9230769230769231</v>
@@ -25256,7 +25250,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K185" t="n">
-        <v>0.5921570582603478</v>
+        <v>0.5921570582603477</v>
       </c>
       <c r="L185" t="n">
         <v>1.6153846153846154</v>
@@ -25358,10 +25352,10 @@
         <v>228</v>
       </c>
       <c r="B186" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C186" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D186" t="n">
         <v>0.38461538461538464</v>
@@ -25385,7 +25379,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K186" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L186" t="n">
         <v>2.25</v>
@@ -25487,10 +25481,10 @@
         <v>229</v>
       </c>
       <c r="B187" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D187" t="n">
         <v>-0.38461538461538464</v>
@@ -25514,7 +25508,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K187" t="n">
-        <v>0.6781292256774812</v>
+        <v>0.6781292256774807</v>
       </c>
       <c r="L187" t="n">
         <v>2.206896551724138</v>
@@ -25616,10 +25610,10 @@
         <v>230</v>
       </c>
       <c r="B188" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C188" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D188" t="n">
         <v>0.375</v>
@@ -25643,7 +25637,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K188" t="n">
-        <v>0.5183013813232816</v>
+        <v>0.5183013813232814</v>
       </c>
       <c r="L188" t="n">
         <v>3.3714285714285714</v>
@@ -25745,10 +25739,10 @@
         <v>231</v>
       </c>
       <c r="B189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D189" t="n">
         <v>0.23076923076923078</v>
@@ -25874,10 +25868,10 @@
         <v>232</v>
       </c>
       <c r="B190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D190" t="n">
         <v>0.6666666666666666</v>
@@ -25901,7 +25895,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6516486685308229</v>
+        <v>0.6516486685308227</v>
       </c>
       <c r="L190" t="n">
         <v>3.3421052631578947</v>
@@ -26003,10 +25997,10 @@
         <v>233</v>
       </c>
       <c r="B191" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C191" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D191" t="n">
         <v>0.38461538461538464</v>
@@ -26030,7 +26024,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K191" t="n">
-        <v>0.596222449591005</v>
+        <v>0.5962224495910051</v>
       </c>
       <c r="L191" t="n">
         <v>1.6785714285714286</v>
@@ -26132,10 +26126,10 @@
         <v>234</v>
       </c>
       <c r="B192" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C192" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D192" t="n">
         <v>0.47368421052631576</v>
@@ -26159,7 +26153,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7917764071627921</v>
+        <v>0.7917764071627924</v>
       </c>
       <c r="L192" t="n">
         <v>1.9411764705882353</v>
@@ -26261,10 +26255,10 @@
         <v>235</v>
       </c>
       <c r="B193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D193" t="n">
         <v>-0.21428571428571427</v>
@@ -26288,7 +26282,7 @@
         <v>0.547008547008547</v>
       </c>
       <c r="K193" t="n">
-        <v>0.6399873791912948</v>
+        <v>0.6399873791912952</v>
       </c>
       <c r="L193" t="n">
         <v>6.049180327868853</v>
@@ -26390,10 +26384,10 @@
         <v>236</v>
       </c>
       <c r="B194" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C194" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D194" t="n">
         <v>0.21428571428571427</v>
@@ -26417,7 +26411,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K194" t="n">
-        <v>0.6176761724687964</v>
+        <v>0.617676172468797</v>
       </c>
       <c r="L194" t="n">
         <v>1.95</v>
@@ -26519,10 +26513,10 @@
         <v>237</v>
       </c>
       <c r="B195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C195" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D195" t="n">
         <v>0.5</v>
@@ -26546,7 +26540,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K195" t="n">
-        <v>0.6204496518746372</v>
+        <v>0.6204496518746373</v>
       </c>
       <c r="L195" t="n">
         <v>1.9</v>
@@ -26648,10 +26642,10 @@
         <v>238</v>
       </c>
       <c r="B196" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C196" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D196" t="n">
         <v>-0.38461538461538464</v>
@@ -26675,7 +26669,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K196" t="n">
-        <v>0.5979708817508218</v>
+        <v>0.5979708817508215</v>
       </c>
       <c r="L196" t="n">
         <v>2.64</v>
@@ -26777,10 +26771,10 @@
         <v>239</v>
       </c>
       <c r="B197" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C197" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D197" t="n">
         <v>0.3333333333333333</v>
@@ -26804,7 +26798,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K197" t="n">
-        <v>0.6813106699907029</v>
+        <v>0.6813106699907031</v>
       </c>
       <c r="L197" t="n">
         <v>1.631578947368421</v>
@@ -26904,10 +26898,10 @@
         <v>240</v>
       </c>
       <c r="B198" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C198" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D198" t="n">
         <v>0.3076923076923077</v>
@@ -26931,7 +26925,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K198" t="n">
-        <v>0.5802094782772229</v>
+        <v>0.5802094782772226</v>
       </c>
       <c r="L198" t="n">
         <v>1.7857142857142858</v>
@@ -27033,10 +27027,10 @@
         <v>241</v>
       </c>
       <c r="B199" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C199" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D199" t="n">
         <v>0.23076923076923078</v>
@@ -27060,7 +27054,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5462159949252697</v>
+        <v>0.5462159949252695</v>
       </c>
       <c r="L199" t="n">
         <v>3.2413793103448274</v>
@@ -27162,10 +27156,10 @@
         <v>242</v>
       </c>
       <c r="B200" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C200" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D200" t="n">
         <v>0.9090909090909091</v>
@@ -27189,7 +27183,7 @@
         <v>0.6733333333333333</v>
       </c>
       <c r="K200" t="n">
-        <v>0.6189101001411755</v>
+        <v>0.6189101001411753</v>
       </c>
       <c r="L200" t="n">
         <v>3.5</v>
@@ -27291,10 +27285,10 @@
         <v>243</v>
       </c>
       <c r="B201" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C201" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D201" t="n">
         <v>-0.07692307692307693</v>
@@ -27318,7 +27312,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K201" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L201" t="n">
         <v>2.0</v>
@@ -27420,10 +27414,10 @@
         <v>244</v>
       </c>
       <c r="B202" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C202" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D202" t="n">
         <v>0.3</v>
@@ -27549,10 +27543,10 @@
         <v>245</v>
       </c>
       <c r="B203" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C203" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D203" t="n">
         <v>-0.07142857142857142</v>
@@ -27576,7 +27570,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6111111111111115</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L203" t="n">
         <v>2.0</v>
@@ -27678,10 +27672,10 @@
         <v>246</v>
       </c>
       <c r="B204" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C204" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D204" t="n">
         <v>0.38461538461538464</v>
@@ -27705,7 +27699,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K204" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L204" t="n">
         <v>1.5714285714285714</v>
@@ -27807,10 +27801,10 @@
         <v>247</v>
       </c>
       <c r="B205" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C205" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D205" t="n">
         <v>-0.6153846153846154</v>
@@ -27936,10 +27930,10 @@
         <v>248</v>
       </c>
       <c r="B206" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C206" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D206" t="n">
         <v>0.0</v>
@@ -27963,7 +27957,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K206" t="n">
-        <v>0.6684156331758151</v>
+        <v>0.6684156331758152</v>
       </c>
       <c r="L206" t="n">
         <v>1.7272727272727273</v>
@@ -28065,70 +28059,70 @@
         <v>249</v>
       </c>
       <c r="B207" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C207" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D207" t="n">
-        <v>0.06666666666666667</v>
+        <v>-0.38461538461538464</v>
       </c>
       <c r="E207" t="n">
-        <v>0.0</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="F207" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0</v>
       </c>
       <c r="H207" t="n">
-        <v>0.15306122448979592</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="I207" t="n">
-        <v>0.4230769230769234</v>
+        <v>0.35532305135498315</v>
       </c>
       <c r="J207" t="n">
-        <v>0.5729984301412873</v>
+        <v>0.6224747474747475</v>
       </c>
       <c r="K207" t="n">
-        <v>0.6162111873284749</v>
+        <v>0.6337679448704807</v>
       </c>
       <c r="L207" t="n">
-        <v>2.163265306122449</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="M207" t="n">
-        <v>2.7523809523809524</v>
+        <v>2.8461538461538463</v>
       </c>
       <c r="N207" t="n">
         <v>5.0</v>
       </c>
       <c r="O207" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P207" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q207" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="R207" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="S207" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="T207" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="U207" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V207" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="W207" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="X207" t="n">
         <v>0.0</v>
@@ -28137,26 +28131,26 @@
         <v>0.0</v>
       </c>
       <c r="Z207" t="n">
-        <v>1.0666666666666667</v>
+        <v>1.0</v>
       </c>
       <c r="AA207" t="n">
         <v>0.0</v>
       </c>
       <c r="AB207" t="n">
-        <v>-0.13636363636363644</v>
+        <v>-0.5412844036697244</v>
       </c>
       <c r="AC207" t="n">
-        <v>-0.8037974683544301</v>
+        <v>-0.7216274089935764</v>
       </c>
       <c r="AD207" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE207"/>
       <c r="AF207" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG207" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AH207" t="n">
         <v>0.0</v>
@@ -28169,17 +28163,17 @@
         <v>0.0</v>
       </c>
       <c r="AL207" t="n">
-        <v>1.0</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="AM207"/>
       <c r="AN207" t="n">
-        <v>0.888888888888889</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="AO207" t="n">
-        <v>0.888888888888889</v>
+        <v>1.0</v>
       </c>
       <c r="AP207" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="AQ207"/>
       <c r="AR207" t="n">
@@ -28194,70 +28188,70 @@
         <v>250</v>
       </c>
       <c r="B208" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C208" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.38461538461538464</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.07692307692307693</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="F208" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.10256410256410257</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0</v>
+        <v>0.20930232558139536</v>
       </c>
       <c r="H208" t="n">
-        <v>0.1423611111111111</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="I208" t="n">
-        <v>0.35532305135498315</v>
+        <v>0.47384181456776736</v>
       </c>
       <c r="J208" t="n">
-        <v>0.6224747474747475</v>
+        <v>0.6837121212121212</v>
       </c>
       <c r="K208" t="n">
-        <v>0.6337679448704804</v>
+        <v>0.653163381795098</v>
       </c>
       <c r="L208" t="n">
-        <v>1.6153846153846154</v>
+        <v>1.5238095238095237</v>
       </c>
       <c r="M208" t="n">
-        <v>2.8461538461538463</v>
+        <v>3.1025641025641026</v>
       </c>
       <c r="N208" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="O208" t="n">
         <v>5.0</v>
       </c>
       <c r="P208" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q208" t="n">
         <v>13.0</v>
       </c>
       <c r="R208" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="S208" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T208" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U208" t="n">
         <v>1.0</v>
       </c>
       <c r="V208" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="W208" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="X208" t="n">
         <v>0.0</v>
@@ -28266,53 +28260,53 @@
         <v>0.0</v>
       </c>
       <c r="Z208" t="n">
-        <v>1.0</v>
+        <v>1.375</v>
       </c>
       <c r="AA208" t="n">
         <v>0.0</v>
       </c>
       <c r="AB208" t="n">
-        <v>-0.5412844036697244</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="AC208" t="n">
-        <v>-0.7216274089935764</v>
+        <v>-0.5926940639269407</v>
       </c>
       <c r="AD208" t="n">
         <v>2.0</v>
       </c>
       <c r="AE208"/>
       <c r="AF208" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG208" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AH208" t="n">
         <v>0.0</v>
       </c>
       <c r="AI208"/>
       <c r="AJ208" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK208" t="n">
-        <v>0.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AL208" t="n">
-        <v>0.958333333333333</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="AM208"/>
       <c r="AN208" t="n">
-        <v>0.851851851851852</v>
+        <v>1.0</v>
       </c>
       <c r="AO208" t="n">
-        <v>1.0</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="AP208" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ208"/>
       <c r="AR208" t="n">
-        <v>0.0</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="AS208" t="n">
         <v>0.0</v>
@@ -28323,70 +28317,70 @@
         <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C209" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D209" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="E209" t="n">
-        <v>0.38461538461538464</v>
+        <v>0.0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.10256410256410257</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G209" t="n">
-        <v>0.20930232558139536</v>
+        <v>0.0</v>
       </c>
       <c r="H209" t="n">
-        <v>0.2048611111111111</v>
+        <v>0.08875739644970414</v>
       </c>
       <c r="I209" t="n">
-        <v>0.47384181456776736</v>
+        <v>0.26189688239641457</v>
       </c>
       <c r="J209" t="n">
-        <v>0.6837121212121212</v>
+        <v>0.52465483234714</v>
       </c>
       <c r="K209" t="n">
-        <v>0.6531633817950978</v>
+        <v>0.7002847398183253</v>
       </c>
       <c r="L209" t="n">
-        <v>1.5238095238095237</v>
+        <v>1.793103448275862</v>
       </c>
       <c r="M209" t="n">
-        <v>3.1025641025641026</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="N209" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="O209" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P209" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q209" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R209" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S209" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V209" t="n">
         <v>13.0</v>
       </c>
-      <c r="R209" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="S209" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="T209" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U209" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V209" t="n">
-        <v>16.0</v>
-      </c>
       <c r="W209" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="X209" t="n">
         <v>0.0</v>
@@ -28395,53 +28389,53 @@
         <v>0.0</v>
       </c>
       <c r="Z209" t="n">
-        <v>1.375</v>
+        <v>1.0</v>
       </c>
       <c r="AA209" t="n">
         <v>0.0</v>
       </c>
       <c r="AB209" t="n">
-        <v>0.3700787401574803</v>
+        <v>-0.24468085106382878</v>
       </c>
       <c r="AC209" t="n">
-        <v>-0.5926940639269407</v>
+        <v>-0.0612244897959187</v>
       </c>
       <c r="AD209" t="n">
         <v>2.0</v>
       </c>
       <c r="AE209"/>
       <c r="AF209" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AG209" t="n">
         <v>4.0</v>
       </c>
       <c r="AH209" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI209"/>
       <c r="AJ209" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK209" t="n">
-        <v>-3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL209" t="n">
-        <v>0.791666666666667</v>
+        <v>1.0</v>
       </c>
       <c r="AM209"/>
       <c r="AN209" t="n">
-        <v>1.0</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="AO209" t="n">
-        <v>0.655172413793103</v>
+        <v>1.0</v>
       </c>
       <c r="AP209" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ209"/>
       <c r="AR209" t="n">
-        <v>0.0476190476190476</v>
+        <v>0.0</v>
       </c>
       <c r="AS209" t="n">
         <v>0.0</v>
@@ -28452,70 +28446,70 @@
         <v>252</v>
       </c>
       <c r="B210" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C210" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F210" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G210" t="n">
         <v>0.0</v>
       </c>
       <c r="H210" t="n">
-        <v>0.08875739644970414</v>
+        <v>0.052083333333333336</v>
       </c>
       <c r="I210" t="n">
-        <v>0.26189688239641457</v>
+        <v>0.19114884406859586</v>
       </c>
       <c r="J210" t="n">
-        <v>0.52465483234714</v>
+        <v>0.37247474747474746</v>
       </c>
       <c r="K210" t="n">
-        <v>0.7002847398183253</v>
+        <v>0.583906988326783</v>
       </c>
       <c r="L210" t="n">
-        <v>1.793103448275862</v>
+        <v>1.7727272727272727</v>
       </c>
       <c r="M210" t="n">
-        <v>3.4615384615384617</v>
+        <v>4.051282051282051</v>
       </c>
       <c r="N210" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="O210" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="P210" t="n">
         <v>4.0</v>
       </c>
       <c r="Q210" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="R210" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="S210" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T210" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="U210" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="V210" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="W210" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="X210" t="n">
         <v>0.0</v>
@@ -28530,10 +28524,10 @@
         <v>0.0</v>
       </c>
       <c r="AB210" t="n">
-        <v>-0.24468085106382878</v>
+        <v>0.45864661654135314</v>
       </c>
       <c r="AC210" t="n">
-        <v>-0.0612244897959187</v>
+        <v>-0.4237288135593215</v>
       </c>
       <c r="AD210" t="n">
         <v>2.0</v>
@@ -28543,10 +28537,10 @@
         <v>3.0</v>
       </c>
       <c r="AG210" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AH210" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI210"/>
       <c r="AJ210" t="n">
@@ -28556,14 +28550,14 @@
         <v>0.0</v>
       </c>
       <c r="AL210" t="n">
-        <v>1.0</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="AM210"/>
       <c r="AN210" t="n">
-        <v>0.939393939393939</v>
+        <v>1.0</v>
       </c>
       <c r="AO210" t="n">
-        <v>1.0</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="AP210" t="n">
         <v>0.0</v>
@@ -28581,55 +28575,55 @@
         <v>253</v>
       </c>
       <c r="B211" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C211" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="E211" t="n">
-        <v>0.15384615384615385</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="F211" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G211" t="n">
         <v>0.0</v>
       </c>
       <c r="H211" t="n">
-        <v>0.052083333333333336</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="I211" t="n">
-        <v>0.19114884406859586</v>
+        <v>0.32528056010460676</v>
       </c>
       <c r="J211" t="n">
-        <v>0.37247474747474746</v>
+        <v>0.5738636363636364</v>
       </c>
       <c r="K211" t="n">
-        <v>0.5839069883267832</v>
+        <v>0.608472649456382</v>
       </c>
       <c r="L211" t="n">
-        <v>1.7727272727272727</v>
+        <v>1.4090909090909092</v>
       </c>
       <c r="M211" t="n">
-        <v>4.051282051282051</v>
+        <v>2.58974358974359</v>
       </c>
       <c r="N211" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="O211" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="P211" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q211" t="n">
         <v>13.0</v>
       </c>
       <c r="R211" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="S211" t="n">
         <v>4.0</v>
@@ -28638,13 +28632,13 @@
         <v>3.0</v>
       </c>
       <c r="U211" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V211" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="W211" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="X211" t="n">
         <v>0.0</v>
@@ -28659,20 +28653,20 @@
         <v>0.0</v>
       </c>
       <c r="AB211" t="n">
-        <v>0.45864661654135314</v>
+        <v>-0.10169491525423786</v>
       </c>
       <c r="AC211" t="n">
-        <v>-0.4237288135593215</v>
+        <v>-0.8488888888888885</v>
       </c>
       <c r="AD211" t="n">
         <v>2.0</v>
       </c>
       <c r="AE211"/>
       <c r="AF211" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="AG211" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="AH211" t="n">
         <v>0.0</v>
@@ -28685,14 +28679,14 @@
         <v>0.0</v>
       </c>
       <c r="AL211" t="n">
-        <v>0.972222222222222</v>
+        <v>0.956521739130435</v>
       </c>
       <c r="AM211"/>
       <c r="AN211" t="n">
         <v>1.0</v>
       </c>
       <c r="AO211" t="n">
-        <v>0.897435897435897</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="AP211" t="n">
         <v>0.0</v>
@@ -28710,125 +28704,125 @@
         <v>254</v>
       </c>
       <c r="B212" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C212" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D212" t="n">
-        <v>0.46153846153846156</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E212" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F212" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H212" t="n">
-        <v>0.18055555555555555</v>
+        <v>0.24260355029585798</v>
       </c>
       <c r="I212" t="n">
-        <v>0.32528056010460676</v>
+        <v>0.42505212312197627</v>
       </c>
       <c r="J212" t="n">
-        <v>0.5738636363636364</v>
+        <v>0.6942800788954635</v>
       </c>
       <c r="K212" t="n">
-        <v>0.6084726494563822</v>
+        <v>0.7798570058713882</v>
       </c>
       <c r="L212" t="n">
-        <v>1.4090909090909092</v>
+        <v>2.03125</v>
       </c>
       <c r="M212" t="n">
-        <v>2.58974358974359</v>
+        <v>3.241758241758242</v>
       </c>
       <c r="N212" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="O212" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P212" t="n">
         <v>2.0</v>
       </c>
       <c r="Q212" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="R212" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="S212" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T212" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U212" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V212" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="W212" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="X212" t="n">
         <v>0.0</v>
       </c>
       <c r="Y212" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z212" t="n">
-        <v>1.0</v>
+        <v>1.4</v>
       </c>
       <c r="AA212" t="n">
         <v>0.0</v>
       </c>
       <c r="AB212" t="n">
-        <v>-0.10169491525423786</v>
+        <v>0.8412698412698412</v>
       </c>
       <c r="AC212" t="n">
-        <v>-0.8488888888888885</v>
+        <v>-0.7423806785508911</v>
       </c>
       <c r="AD212" t="n">
         <v>2.0</v>
       </c>
       <c r="AE212"/>
       <c r="AF212" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AG212" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AH212" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI212"/>
       <c r="AJ212" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK212" t="n">
-        <v>0.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AL212" t="n">
-        <v>0.956521739130435</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="AM212"/>
       <c r="AN212" t="n">
         <v>1.0</v>
       </c>
       <c r="AO212" t="n">
-        <v>0.916666666666667</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="AP212" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ212"/>
       <c r="AR212" t="n">
-        <v>0.0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="AS212" t="n">
         <v>0.0</v>
@@ -28839,43 +28833,43 @@
         <v>255</v>
       </c>
       <c r="B213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C213" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D213" t="n">
-        <v>0.42857142857142855</v>
+        <v>1.5</v>
       </c>
       <c r="E213" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="F213" t="n">
-        <v>0.08241758241758242</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G213" t="n">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>0.24260355029585798</v>
+        <v>0.2958579881656805</v>
       </c>
       <c r="I213" t="n">
-        <v>0.42505212312197627</v>
+        <v>0.5282738095238095</v>
       </c>
       <c r="J213" t="n">
-        <v>0.6942800788954635</v>
+        <v>0.8037475345167653</v>
       </c>
       <c r="K213" t="n">
-        <v>0.779857005871388</v>
+        <v>0.79874466429495</v>
       </c>
       <c r="L213" t="n">
-        <v>2.03125</v>
+        <v>1.6486486486486487</v>
       </c>
       <c r="M213" t="n">
-        <v>3.241758241758242</v>
+        <v>2.5054945054945055</v>
       </c>
       <c r="N213" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="O213" t="n">
         <v>4.0</v>
@@ -28890,74 +28884,74 @@
         <v>9.0</v>
       </c>
       <c r="S213" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="T213" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U213" t="n">
         <v>0.0</v>
       </c>
       <c r="V213" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="W213" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="X213" t="n">
         <v>0.0</v>
       </c>
       <c r="Y213" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z213" t="n">
-        <v>1.4</v>
+        <v>1.0</v>
       </c>
       <c r="AA213" t="n">
         <v>0.0</v>
       </c>
       <c r="AB213" t="n">
-        <v>0.8412698412698412</v>
+        <v>-0.7960526315789483</v>
       </c>
       <c r="AC213" t="n">
-        <v>-0.7423806785508911</v>
+        <v>-0.7964519140989726</v>
       </c>
       <c r="AD213" t="n">
         <v>2.0</v>
       </c>
       <c r="AE213"/>
       <c r="AF213" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AG213" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="AH213" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AI213"/>
       <c r="AJ213" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK213" t="n">
-        <v>-3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL213" t="n">
-        <v>0.916666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="AM213"/>
       <c r="AN213" t="n">
         <v>1.0</v>
       </c>
       <c r="AO213" t="n">
-        <v>0.785714285714286</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="AP213" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ213"/>
       <c r="AR213" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0</v>
       </c>
       <c r="AS213" t="n">
         <v>0.0</v>
@@ -28968,16 +28962,16 @@
         <v>256</v>
       </c>
       <c r="B214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C214" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D214" t="n">
-        <v>1.5</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E214" t="n">
-        <v>0.5</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="F214" t="n">
         <v>0.07142857142857142</v>
@@ -28986,25 +28980,25 @@
         <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2958579881656805</v>
+        <v>0.26785714285714285</v>
       </c>
       <c r="I214" t="n">
-        <v>0.5282738095238095</v>
+        <v>0.4311843444296448</v>
       </c>
       <c r="J214" t="n">
-        <v>0.8037475345167653</v>
+        <v>0.706828885400314</v>
       </c>
       <c r="K214" t="n">
-        <v>0.7987446642949502</v>
+        <v>0.7465589852152263</v>
       </c>
       <c r="L214" t="n">
-        <v>1.6486486486486487</v>
+        <v>2.71875</v>
       </c>
       <c r="M214" t="n">
-        <v>2.5054945054945055</v>
+        <v>3.5619047619047617</v>
       </c>
       <c r="N214" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="O214" t="n">
         <v>4.0</v>
@@ -29013,43 +29007,43 @@
         <v>2.0</v>
       </c>
       <c r="Q214" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="R214" t="n">
         <v>9.0</v>
       </c>
       <c r="S214" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="T214" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U214" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V214" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="W214" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="X214" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y214" t="n">
         <v>0.0</v>
       </c>
       <c r="Z214" t="n">
-        <v>1.0</v>
+        <v>1.6</v>
       </c>
       <c r="AA214" t="n">
         <v>0.0</v>
       </c>
       <c r="AB214" t="n">
-        <v>-0.7960526315789483</v>
+        <v>0.4767441860465115</v>
       </c>
       <c r="AC214" t="n">
-        <v>-0.7964519140989726</v>
+        <v>-0.9073518379594899</v>
       </c>
       <c r="AD214" t="n">
         <v>2.0</v>
@@ -29059,27 +29053,27 @@
         <v>9.0</v>
       </c>
       <c r="AG214" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="AH214" t="n">
         <v>3.0</v>
       </c>
       <c r="AI214"/>
       <c r="AJ214" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK214" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AL214" t="n">
-        <v>0.833333333333333</v>
+        <v>0.884615384615384</v>
       </c>
       <c r="AM214"/>
       <c r="AN214" t="n">
         <v>1.0</v>
       </c>
       <c r="AO214" t="n">
-        <v>0.666666666666667</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="AP214" t="n">
         <v>0.0</v>
@@ -29097,43 +29091,43 @@
         <v>257</v>
       </c>
       <c r="B215" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C215" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D215" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E215" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F215" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G215" t="n">
         <v>0.0</v>
       </c>
       <c r="H215" t="n">
-        <v>0.26785714285714285</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="I215" t="n">
-        <v>0.4311843444296448</v>
+        <v>0.3917588219860946</v>
       </c>
       <c r="J215" t="n">
-        <v>0.706828885400314</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="K215" t="n">
-        <v>0.7465589852152266</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L215" t="n">
-        <v>2.71875</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="M215" t="n">
-        <v>3.5619047619047617</v>
+        <v>3.2051282051282053</v>
       </c>
       <c r="N215" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="O215" t="n">
         <v>4.0</v>
@@ -29142,73 +29136,73 @@
         <v>2.0</v>
       </c>
       <c r="Q215" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="R215" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="S215" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="T215" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U215" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V215" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="W215" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="X215" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y215" t="n">
         <v>0.0</v>
       </c>
       <c r="Z215" t="n">
-        <v>1.6</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AA215" t="n">
         <v>0.0</v>
       </c>
       <c r="AB215" t="n">
-        <v>0.4767441860465115</v>
+        <v>-0.615384615384616</v>
       </c>
       <c r="AC215" t="n">
-        <v>-0.9073518379594899</v>
+        <v>-0.9224489795918367</v>
       </c>
       <c r="AD215" t="n">
         <v>2.0</v>
       </c>
       <c r="AE215"/>
       <c r="AF215" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG215" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AH215" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AI215"/>
       <c r="AJ215" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AK215" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL215" t="n">
-        <v>0.884615384615384</v>
+        <v>0.954545454545454</v>
       </c>
       <c r="AM215"/>
       <c r="AN215" t="n">
         <v>1.0</v>
       </c>
       <c r="AO215" t="n">
-        <v>0.793103448275862</v>
+        <v>0.84</v>
       </c>
       <c r="AP215" t="n">
         <v>0.0</v>
@@ -29226,43 +29220,43 @@
         <v>258</v>
       </c>
       <c r="B216" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C216" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D216" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E216" t="n">
-        <v>0.15384615384615385</v>
+        <v>0.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="H216" t="n">
-        <v>0.2326388888888889</v>
+        <v>0.1487603305785124</v>
       </c>
       <c r="I216" t="n">
-        <v>0.3917588219860946</v>
+        <v>0.39692406767753624</v>
       </c>
       <c r="J216" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.5256198347107438</v>
       </c>
       <c r="K216" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.6551138098567636</v>
       </c>
       <c r="L216" t="n">
-        <v>1.8181818181818181</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="M216" t="n">
-        <v>3.2051282051282053</v>
+        <v>2.5454545454545454</v>
       </c>
       <c r="N216" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="O216" t="n">
         <v>4.0</v>
@@ -29271,16 +29265,16 @@
         <v>2.0</v>
       </c>
       <c r="Q216" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="R216" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="S216" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T216" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U216" t="n">
         <v>0.0</v>
@@ -29298,23 +29292,23 @@
         <v>0.0</v>
       </c>
       <c r="Z216" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AA216" t="n">
         <v>0.0</v>
       </c>
       <c r="AB216" t="n">
-        <v>-0.615384615384616</v>
+        <v>0.6141479099678451</v>
       </c>
       <c r="AC216" t="n">
-        <v>-0.9224489795918367</v>
+        <v>-0.7540603248259866</v>
       </c>
       <c r="AD216" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AE216"/>
       <c r="AF216" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG216" t="n">
         <v>5.0</v>
@@ -29324,27 +29318,27 @@
       </c>
       <c r="AI216"/>
       <c r="AJ216" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK216" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="AL216" t="n">
-        <v>0.954545454545454</v>
+        <v>1.0</v>
       </c>
       <c r="AM216"/>
       <c r="AN216" t="n">
-        <v>1.0</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="AO216" t="n">
-        <v>0.84</v>
+        <v>0.904761904761905</v>
       </c>
       <c r="AP216" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ216"/>
       <c r="AR216" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="AS216" t="n">
         <v>0.0</v>
@@ -29355,91 +29349,91 @@
         <v>259</v>
       </c>
       <c r="B217" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C217" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D217" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E217" t="n">
-        <v>0.0</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F217" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.10256410256410257</v>
       </c>
       <c r="G217" t="n">
-        <v>0.12</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="H217" t="n">
-        <v>0.1487603305785124</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="I217" t="n">
-        <v>0.39692406767753624</v>
+        <v>0.3294037453365201</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5256198347107438</v>
+        <v>0.5505050505050505</v>
       </c>
       <c r="K217" t="n">
-        <v>0.6551138098567633</v>
+        <v>0.4993325464661074</v>
       </c>
       <c r="L217" t="n">
-        <v>1.1428571428571428</v>
+        <v>4.206896551724138</v>
       </c>
       <c r="M217" t="n">
-        <v>2.5454545454545454</v>
+        <v>7.461538461538462</v>
       </c>
       <c r="N217" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="O217" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P217" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q217" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="R217" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="S217" t="n">
         <v>5.0</v>
       </c>
       <c r="T217" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U217" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V217" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="W217" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="X217" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y217" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z217" t="n">
-        <v>1.0</v>
+        <v>2.25</v>
       </c>
       <c r="AA217" t="n">
         <v>0.0</v>
       </c>
       <c r="AB217" t="n">
-        <v>0.6141479099678451</v>
+        <v>0.5822454308093995</v>
       </c>
       <c r="AC217" t="n">
-        <v>-0.7540603248259866</v>
+        <v>-0.6149532710280374</v>
       </c>
       <c r="AD217" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE217"/>
       <c r="AF217" t="n">
@@ -29456,155 +29450,26 @@
         <v>3.0</v>
       </c>
       <c r="AK217" t="n">
-        <v>-1.0</v>
+        <v>-3.0</v>
       </c>
       <c r="AL217" t="n">
-        <v>1.0</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="AM217"/>
       <c r="AN217" t="n">
-        <v>0.904761904761905</v>
+        <v>1.0</v>
       </c>
       <c r="AO217" t="n">
-        <v>0.904761904761905</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="AP217" t="n">
         <v>0.0</v>
       </c>
       <c r="AQ217"/>
       <c r="AR217" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>260</v>
-      </c>
-      <c r="B218" t="s">
-        <v>477</v>
-      </c>
-      <c r="C218" t="s">
-        <v>477</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0.10256410256410257</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0.3294037453365201</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0.5505050505050505</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.49933254646610675</v>
-      </c>
-      <c r="L218" t="n">
-        <v>4.206896551724138</v>
-      </c>
-      <c r="M218" t="n">
-        <v>7.461538461538462</v>
-      </c>
-      <c r="N218" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="O218" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="P218" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Q218" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="R218" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="S218" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T218" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U218" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V218" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="W218" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="X218" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Y218" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z218" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA218" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB218" t="n">
-        <v>0.5822454308093995</v>
-      </c>
-      <c r="AC218" t="n">
-        <v>-0.6149532710280374</v>
-      </c>
-      <c r="AD218" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AE218"/>
-      <c r="AF218" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AG218" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AH218" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI218"/>
-      <c r="AJ218" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AK218" t="n">
-        <v>-3.0</v>
-      </c>
-      <c r="AL218" t="n">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="AM218"/>
-      <c r="AN218" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AO218" t="n">
-        <v>0.851851851851852</v>
-      </c>
-      <c r="AP218" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AQ218"/>
-      <c r="AR218" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AS218" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
+++ b/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/networkIndicators_pre_final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="692">
   <si>
     <t>CAM_ID</t>
   </si>
@@ -792,6 +792,654 @@
   </si>
   <si>
     <t>225</t>
+  </si>
+  <si>
+    <t>67d88f73-7672-4027-98f5-6463b4edc1f7</t>
+  </si>
+  <si>
+    <t>93054cc2-22c5-4ad6-8427-e87a59330550</t>
+  </si>
+  <si>
+    <t>ff10f939-c494-42a7-9dda-db09c3f1cbfb</t>
+  </si>
+  <si>
+    <t>e2432d72-71f3-4c9c-816b-344d659a8a98</t>
+  </si>
+  <si>
+    <t>2372728a-1554-4b74-bdb8-fc1b458cd84b</t>
+  </si>
+  <si>
+    <t>96ced3a1-c238-42a7-a384-972ecb827ef7</t>
+  </si>
+  <si>
+    <t>4dbc03aa-ef88-4c3c-a65b-111ea22e5a77</t>
+  </si>
+  <si>
+    <t>d5c8fbf0-86c5-4ad7-930b-2337a0dde821</t>
+  </si>
+  <si>
+    <t>b6b4e386-7c68-410c-8f1e-d26fe6de228b</t>
+  </si>
+  <si>
+    <t>686eb427-5afa-40f8-a326-bf7f888c817c</t>
+  </si>
+  <si>
+    <t>7359f40a-d1bf-4488-aff7-996c937c178c</t>
+  </si>
+  <si>
+    <t>e9ec8b7a-19d3-49ae-96c8-2f4611046a24</t>
+  </si>
+  <si>
+    <t>b2a0210a-04c0-4c9a-94f7-ff067e50f322</t>
+  </si>
+  <si>
+    <t>a7817fa8-57ef-4d06-b211-3b538008214e</t>
+  </si>
+  <si>
+    <t>f1dff0a4-f2df-4e1d-a1e2-af0998b22827</t>
+  </si>
+  <si>
+    <t>25ed7243-8757-478e-ac85-446b6a3a74f1</t>
+  </si>
+  <si>
+    <t>f16484f1-e7fa-4e5a-8ddc-c7a5a1a98d73</t>
+  </si>
+  <si>
+    <t>3c31933e-4d4b-4470-b22e-453216b172bf</t>
+  </si>
+  <si>
+    <t>c2ef1ea2-cd4b-4254-8b5d-05ac028a4b75</t>
+  </si>
+  <si>
+    <t>1391b737-31b0-4801-b000-c8468ac78fbf</t>
+  </si>
+  <si>
+    <t>b140d5c7-8ad3-4697-90ba-771346add31f</t>
+  </si>
+  <si>
+    <t>9ff6b7dc-5993-4342-90fb-734d4abc7388</t>
+  </si>
+  <si>
+    <t>e5fe832e-4027-46f0-8dac-3ae12d6be880</t>
+  </si>
+  <si>
+    <t>b04a7178-0386-4446-9aa7-a51271502dcc</t>
+  </si>
+  <si>
+    <t>e379608f-689d-44e3-8b5d-b663d465bea3</t>
+  </si>
+  <si>
+    <t>eb73ea52-bc84-49d7-9587-ee803cef8ac3</t>
+  </si>
+  <si>
+    <t>1c6a989e-87a9-42df-9875-39737313acc2</t>
+  </si>
+  <si>
+    <t>d0c57c19-3826-49cd-8f98-2afe80cc78db</t>
+  </si>
+  <si>
+    <t>f9a7f254-8f20-40dd-b389-f3d7cd26b025</t>
+  </si>
+  <si>
+    <t>a57e79ad-4efa-4352-8c71-9ea307c4f84b</t>
+  </si>
+  <si>
+    <t>dd309540-8638-4343-a094-18add58b76ad</t>
+  </si>
+  <si>
+    <t>0ba6a0cd-db01-4ac6-b4ff-4e8ef6ffd3d9</t>
+  </si>
+  <si>
+    <t>ed307214-1716-4638-9a91-1c1485e3d66c</t>
+  </si>
+  <si>
+    <t>eeb0c550-f62e-4768-b2b4-c4905c715514</t>
+  </si>
+  <si>
+    <t>e24d6314-a5a3-4f0c-aefb-77ee7b5a9d31</t>
+  </si>
+  <si>
+    <t>a5815276-cec9-47e5-8aab-f048bf3626de</t>
+  </si>
+  <si>
+    <t>b6c60582-aefd-4543-a47d-261456a34029</t>
+  </si>
+  <si>
+    <t>07f908bc-e189-49a5-a28c-633098ffef20</t>
+  </si>
+  <si>
+    <t>968e5394-940e-47c5-85eb-25784bc8a7fc</t>
+  </si>
+  <si>
+    <t>5e068e94-2f0f-40b2-817b-f290c3adab08</t>
+  </si>
+  <si>
+    <t>b844a791-6edc-4958-a1df-693cd8c80cb5</t>
+  </si>
+  <si>
+    <t>6b1d49ac-0ea1-4c20-8be3-c81f113896b8</t>
+  </si>
+  <si>
+    <t>5951fd74-1350-40de-bdf2-a9a2e7347a72</t>
+  </si>
+  <si>
+    <t>ef91c661-a8e0-442d-ade8-7f7274075aff</t>
+  </si>
+  <si>
+    <t>2ff84679-c0d5-4155-bd6c-1dfe8df3c930</t>
+  </si>
+  <si>
+    <t>1a3645d9-a47a-44b6-9f11-b3488a860136</t>
+  </si>
+  <si>
+    <t>b856e644-0f7b-4e4b-ad22-253cdce86b22</t>
+  </si>
+  <si>
+    <t>c331afea-cac2-49f5-99c2-14e7898f5c2d</t>
+  </si>
+  <si>
+    <t>bc547320-d640-4e59-aa7c-1ef59189b42a</t>
+  </si>
+  <si>
+    <t>e94223c0-8019-4d2f-a13f-f782c523b3a4</t>
+  </si>
+  <si>
+    <t>10a31fa7-bc6f-42c9-b263-3186440e27c9</t>
+  </si>
+  <si>
+    <t>c4c371ba-4b17-4157-bc86-41b32be95de3</t>
+  </si>
+  <si>
+    <t>4169c386-f185-4153-9941-f40fdba582a0</t>
+  </si>
+  <si>
+    <t>08615304-8525-4909-a82d-1b42e072c9de</t>
+  </si>
+  <si>
+    <t>c9374aec-3195-4b35-9cf6-57db04cde7cd</t>
+  </si>
+  <si>
+    <t>a6057252-da92-4aa3-b96f-5277bef8a41b</t>
+  </si>
+  <si>
+    <t>bbc9d5c3-9c85-4042-9e9f-a54e62faca9a</t>
+  </si>
+  <si>
+    <t>f5da2fd6-5ac6-464e-8c7e-e81e27555ed1</t>
+  </si>
+  <si>
+    <t>cd3dc9a8-9cfa-412e-811a-f020de2002e6</t>
+  </si>
+  <si>
+    <t>ff21ff6d-4264-47c0-87cd-3972e1005209</t>
+  </si>
+  <si>
+    <t>53672d4e-598a-4be2-af49-8cac5957c423</t>
+  </si>
+  <si>
+    <t>a411e968-d2c2-450c-8cbf-f5c13113011e</t>
+  </si>
+  <si>
+    <t>3204b5bc-9529-4b04-ab61-f06f69e18811</t>
+  </si>
+  <si>
+    <t>0ea5987b-6841-4e72-a7b5-ce9d4f9d9622</t>
+  </si>
+  <si>
+    <t>e4807e2b-6030-408f-9e22-b6107aa91cab</t>
+  </si>
+  <si>
+    <t>8b7ac4b2-723d-421b-81d0-e045e5cf23f9</t>
+  </si>
+  <si>
+    <t>a8c4e167-3040-4691-97f7-335bd7ea010b</t>
+  </si>
+  <si>
+    <t>b1a53c70-2c04-4eaf-b06d-00f4ddf8a3d4</t>
+  </si>
+  <si>
+    <t>e3458515-c043-4d7e-a116-b870590110cb</t>
+  </si>
+  <si>
+    <t>31ddc195-56b5-49b8-802e-398c11bb1310</t>
+  </si>
+  <si>
+    <t>2c7f98ed-e441-43e9-bbe2-811fd32476d7</t>
+  </si>
+  <si>
+    <t>eab6a6b3-901d-4a71-b6ee-460d1cfa6b57</t>
+  </si>
+  <si>
+    <t>0a3bbf7f-a4dc-449a-8eb9-0a491ad8f00e</t>
+  </si>
+  <si>
+    <t>894ba5a3-b1d6-48df-88a2-7c1f0dfb624a</t>
+  </si>
+  <si>
+    <t>d5402f33-f4c7-41ea-a13e-367f92b48067</t>
+  </si>
+  <si>
+    <t>d3cafa8c-ff3f-495f-b88f-e3ff0aad8276</t>
+  </si>
+  <si>
+    <t>4f7c2cc1-fb4e-4e9b-b4c0-f068b52d13a6</t>
+  </si>
+  <si>
+    <t>c6d00bc9-3f5b-48a4-bf29-27e0aef92c07</t>
+  </si>
+  <si>
+    <t>40b95e1e-7d4b-4236-8d6b-452d90b8ed25</t>
+  </si>
+  <si>
+    <t>425c136c-828a-4fff-8d3d-a11b7ce94fc2</t>
+  </si>
+  <si>
+    <t>bb8ce1f5-8c89-46ae-b5d0-fd388f3781f7</t>
+  </si>
+  <si>
+    <t>af1e2d25-a53d-4225-913d-4034a685b645</t>
+  </si>
+  <si>
+    <t>9064db3d-2a5d-4489-b2ca-48beb38b0b58</t>
+  </si>
+  <si>
+    <t>20fb814b-944b-4151-9989-98e747026072</t>
+  </si>
+  <si>
+    <t>42da5102-bfd6-4aeb-8a16-e261f6946b20</t>
+  </si>
+  <si>
+    <t>2e4cfec5-cd3c-4dfa-bd62-ba6dc7a10fce</t>
+  </si>
+  <si>
+    <t>c68b73f7-3386-4bdf-8018-ac4910e48b99</t>
+  </si>
+  <si>
+    <t>78017486-2a19-48bc-9839-e5528e902f07</t>
+  </si>
+  <si>
+    <t>337ba88b-57a8-416c-b024-56c7ec77973a</t>
+  </si>
+  <si>
+    <t>a1ac7e16-9902-45b8-b259-68117ec96602</t>
+  </si>
+  <si>
+    <t>6a8e6149-1a81-46d9-8a50-27a580840f1a</t>
+  </si>
+  <si>
+    <t>171b6d5d-2857-47e5-8ba1-5209ac3dfa29</t>
+  </si>
+  <si>
+    <t>3c77358a-3e82-4a63-9771-19a52a7634e6</t>
+  </si>
+  <si>
+    <t>1220bf3e-0f5f-40cc-81d8-1619b2aa845c</t>
+  </si>
+  <si>
+    <t>1a40350e-c384-4d35-8416-bb73b09dfc02</t>
+  </si>
+  <si>
+    <t>04afdc38-29d5-48aa-9138-0f7735d9dc05</t>
+  </si>
+  <si>
+    <t>5fe08e2c-6435-4fc8-8774-5a55e249ff3e</t>
+  </si>
+  <si>
+    <t>accadebf-a880-4c9a-bd21-500296454b8e</t>
+  </si>
+  <si>
+    <t>d05b954a-7230-4783-8410-5cf1b6ce0140</t>
+  </si>
+  <si>
+    <t>580b7472-d6e2-4dfc-8c2e-12ed71e4d98d</t>
+  </si>
+  <si>
+    <t>069068ad-d01f-4299-85c7-3d7b2e7f25a2</t>
+  </si>
+  <si>
+    <t>0624f5f3-a5f1-4d0e-a693-ea4d50922280</t>
+  </si>
+  <si>
+    <t>e5d43533-cb2b-465e-87a1-341bee79f02d</t>
+  </si>
+  <si>
+    <t>8f1ad48b-c79e-4006-8436-a674fcdcd84a</t>
+  </si>
+  <si>
+    <t>e5b6c7bc-357e-4763-887a-8de111769bd2</t>
+  </si>
+  <si>
+    <t>cf7c027c-f702-4d0d-afbf-410dac63c7de</t>
+  </si>
+  <si>
+    <t>8f180c31-c24e-4bf4-9d6a-52c894d065c2</t>
+  </si>
+  <si>
+    <t>0b419dbc-a5af-43ce-abb5-c427ea0226f5</t>
+  </si>
+  <si>
+    <t>2563766f-b761-4eac-8a41-65ea874e387e</t>
+  </si>
+  <si>
+    <t>3ddbee71-22a5-433e-820d-3d5d6065097f</t>
+  </si>
+  <si>
+    <t>1dd6d655-5f7d-4932-afab-ede3768dba56</t>
+  </si>
+  <si>
+    <t>52e02f6a-a4df-48e5-b1e5-143d03104b4f</t>
+  </si>
+  <si>
+    <t>f1abba8a-dd0d-4152-bf0c-0f737cab8816</t>
+  </si>
+  <si>
+    <t>afbbf940-c6eb-446f-b1b3-3ad0f2c1c88c</t>
+  </si>
+  <si>
+    <t>e84db07a-cce0-42ba-9e75-02235905500d</t>
+  </si>
+  <si>
+    <t>85f22ceb-b65d-48ed-94f4-3cf3335f6159</t>
+  </si>
+  <si>
+    <t>7af616c4-c1f5-4ae6-97c0-8d6657d47520</t>
+  </si>
+  <si>
+    <t>51c77f8b-a11d-4f67-b4db-85ac9b6e4bbd</t>
+  </si>
+  <si>
+    <t>f50a29e8-1ee2-4039-9c43-4e8d1fb6a4c2</t>
+  </si>
+  <si>
+    <t>523189e2-a0ec-4512-8d92-f5b3b20a2558</t>
+  </si>
+  <si>
+    <t>2f41fa8c-38e4-4e67-a28e-fac1c09c5f06</t>
+  </si>
+  <si>
+    <t>01af9189-440e-493a-a00e-5c835c1d5d3a</t>
+  </si>
+  <si>
+    <t>bdf783f8-454a-489e-8c5a-e25a04b0d4a5</t>
+  </si>
+  <si>
+    <t>4ba69c8a-f4b7-44de-a149-b3f0b9f47555</t>
+  </si>
+  <si>
+    <t>4931bb49-5d85-439c-956b-ec0757ba39e3</t>
+  </si>
+  <si>
+    <t>21a4de17-cb64-4f84-9def-81bf57678337</t>
+  </si>
+  <si>
+    <t>599b33b5-db21-4603-b257-cde81ca64bd4</t>
+  </si>
+  <si>
+    <t>5c561af6-132d-4036-9472-e4b65bd84862</t>
+  </si>
+  <si>
+    <t>bc7ee580-2905-4eac-a9e8-82033b1acb64</t>
+  </si>
+  <si>
+    <t>b4f8a0b0-7f2b-430a-82dc-44fa383088e4</t>
+  </si>
+  <si>
+    <t>1bc8ec17-8a23-439b-a204-f49e2f08567b</t>
+  </si>
+  <si>
+    <t>f1eb738f-32b1-4ab6-bbc0-7dd73abd5cac</t>
+  </si>
+  <si>
+    <t>0126c28c-b57e-49ac-bbb9-9d24f731fd3a</t>
+  </si>
+  <si>
+    <t>9535d531-07fe-42f4-98a2-26ed3d062421</t>
+  </si>
+  <si>
+    <t>86939696-29e5-40ca-aa78-b127aa88065e</t>
+  </si>
+  <si>
+    <t>f1579ce6-f39b-415c-be8d-bd7e32299e72</t>
+  </si>
+  <si>
+    <t>d6e9c897-2c72-44a5-a921-f1c8b0f00029</t>
+  </si>
+  <si>
+    <t>463d4af0-cc56-4d96-a7a7-fb6d91615410</t>
+  </si>
+  <si>
+    <t>00aff601-0944-4508-8541-5c02824bd709</t>
+  </si>
+  <si>
+    <t>19038cb0-6ec8-4aaf-bb0c-0cd2de1b338e</t>
+  </si>
+  <si>
+    <t>3be01753-cb70-48c3-9b40-60ea9962b9dd</t>
+  </si>
+  <si>
+    <t>2080b905-a1e1-4367-a450-fdbbd8cb5e80</t>
+  </si>
+  <si>
+    <t>f349e60f-53a2-4f52-a7d2-7e3f88698397</t>
+  </si>
+  <si>
+    <t>d6fdcfb1-82c6-43bd-904f-12601ed827e4</t>
+  </si>
+  <si>
+    <t>9ce5ea53-8f39-4144-bf3a-153e6745bb2b</t>
+  </si>
+  <si>
+    <t>ab3f83ee-89b4-4de8-b52a-64a2b564941a</t>
+  </si>
+  <si>
+    <t>a1889cf1-8b05-4cb0-9685-939d7694f180</t>
+  </si>
+  <si>
+    <t>2fd11ec5-e468-4f9f-b88a-ad0931454ae0</t>
+  </si>
+  <si>
+    <t>57801af2-ab46-4f3f-a63f-1971b27a2461</t>
+  </si>
+  <si>
+    <t>9e146c5b-be3a-4022-91a3-b6a14fec5070</t>
+  </si>
+  <si>
+    <t>55958571-2cfc-4378-906f-c39d3c7565a7</t>
+  </si>
+  <si>
+    <t>a9d51335-b408-4695-969a-3e68f1703a84</t>
+  </si>
+  <si>
+    <t>9da95065-eedc-402b-b265-f842be19c60e</t>
+  </si>
+  <si>
+    <t>bc4474cb-256e-4cba-aba6-64b0c0bf82fb</t>
+  </si>
+  <si>
+    <t>5640021e-b0a4-41a8-a711-4446e7b2be48</t>
+  </si>
+  <si>
+    <t>059d84bf-9cf9-4e08-926f-12c4b5b16504</t>
+  </si>
+  <si>
+    <t>24d45a10-a693-4d46-809b-06bf36940f04</t>
+  </si>
+  <si>
+    <t>d011cd6c-e316-4616-964b-b83dd86f7da1</t>
+  </si>
+  <si>
+    <t>58150d17-1b9b-47b1-8f30-a71a23174f82</t>
+  </si>
+  <si>
+    <t>b2bbe07a-0a68-4f07-9cf2-ee89466f97e4</t>
+  </si>
+  <si>
+    <t>52f6720c-2c36-473a-8021-7793ba931781</t>
+  </si>
+  <si>
+    <t>b82eab01-a0f5-4443-9b8d-69cf7446fe7c</t>
+  </si>
+  <si>
+    <t>c5f0504f-e22f-44df-90e4-e6cdc0d575bf</t>
+  </si>
+  <si>
+    <t>247dddee-6121-4793-b5b6-8027a162e12f</t>
+  </si>
+  <si>
+    <t>b75cface-2dec-405d-9ebd-963b8660a202</t>
+  </si>
+  <si>
+    <t>877d1da8-cce8-40cb-a4a1-7f022f82dbe2</t>
+  </si>
+  <si>
+    <t>710e3852-acd8-4669-8426-6ee802b39388</t>
+  </si>
+  <si>
+    <t>e76181b1-99ea-4065-a12d-f96b507344d7</t>
+  </si>
+  <si>
+    <t>be9754cd-104b-403a-90e3-84196b613523</t>
+  </si>
+  <si>
+    <t>fc0011ab-6cf3-4013-a8f7-c6f33788c402</t>
+  </si>
+  <si>
+    <t>57352506-7df0-4fb9-b79c-3df0e14a098c</t>
+  </si>
+  <si>
+    <t>c664c7ce-ddf7-4991-aa66-7de539215437</t>
+  </si>
+  <si>
+    <t>24f2177c-8bdb-4fc6-8d86-04121ff9fdd1</t>
+  </si>
+  <si>
+    <t>85186556-fc5a-403d-a571-f117c3b23223</t>
+  </si>
+  <si>
+    <t>5af5051a-ad7c-4b39-8dbc-0a35184a8e94</t>
+  </si>
+  <si>
+    <t>c4dfdb1f-726a-4cfd-8a37-3d6bdfdea7cb</t>
+  </si>
+  <si>
+    <t>8cc2c4e8-f161-4bf9-971a-7cc8dd01668d</t>
+  </si>
+  <si>
+    <t>f797db68-57df-49f1-a5aa-b9d816db8774</t>
+  </si>
+  <si>
+    <t>8b48bb85-8408-4949-93e5-c542081fdecc</t>
+  </si>
+  <si>
+    <t>a041fc15-059c-4092-9f14-2a3397bc0001</t>
+  </si>
+  <si>
+    <t>02d81a23-e7af-4677-986d-fbe04685eac5</t>
+  </si>
+  <si>
+    <t>6252b4a8-7589-4c89-98ea-6456d2201d3f</t>
+  </si>
+  <si>
+    <t>7cc633b0-81ed-4a11-be86-0124fb1b6145</t>
+  </si>
+  <si>
+    <t>78195f5a-759b-41ad-b5d7-2a4e588ede72</t>
+  </si>
+  <si>
+    <t>73a99249-5a0f-41a5-a775-f432d3e0ab51</t>
+  </si>
+  <si>
+    <t>9285ca59-21c4-44c7-9c61-8c307cbd678b</t>
+  </si>
+  <si>
+    <t>ba4921ab-76fd-49a9-bb3f-9af23e9c9f58</t>
+  </si>
+  <si>
+    <t>146111f0-5ba3-4fcb-96a9-69f143a44752</t>
+  </si>
+  <si>
+    <t>2cbf9b6e-fef6-4cdd-ac95-f82b9c07d83d</t>
+  </si>
+  <si>
+    <t>9b01fce0-6c53-46c1-b469-a93de41593d5</t>
+  </si>
+  <si>
+    <t>ad701192-eb60-41df-9aa7-7bf39eb9492a</t>
+  </si>
+  <si>
+    <t>8a298f41-4c3d-4eda-90c2-2d42b16f92cb</t>
+  </si>
+  <si>
+    <t>859d0376-a57a-471d-8cd8-3378d2fcf678</t>
+  </si>
+  <si>
+    <t>e9412065-4b1a-445d-9da3-9569326fc9aa</t>
+  </si>
+  <si>
+    <t>42098a98-6d62-48e9-abb5-c3c9beec21b1</t>
+  </si>
+  <si>
+    <t>21746ff6-4488-4309-a119-562cf2e4644c</t>
+  </si>
+  <si>
+    <t>56f6f479-9cfb-4966-bc61-53df44f92d10</t>
+  </si>
+  <si>
+    <t>dc27d1fa-9533-41d4-9a20-49fae4891d8f</t>
+  </si>
+  <si>
+    <t>d2ab0d7c-b316-4c79-8cbd-8de0f57fb9f9</t>
+  </si>
+  <si>
+    <t>c70ef1e0-b8a7-4eef-ae74-9da039a0981e</t>
+  </si>
+  <si>
+    <t>3c44c31b-dc69-4ab7-81c6-5abc1ff44790</t>
+  </si>
+  <si>
+    <t>2931920e-a0e5-4b84-bed7-82bdb4de6121</t>
+  </si>
+  <si>
+    <t>595ab574-2c03-4dbb-ac6d-150a3f4c4925</t>
+  </si>
+  <si>
+    <t>dbb7dc07-546f-451b-9ba5-1f84e4d06400</t>
+  </si>
+  <si>
+    <t>b11de58e-3825-4b4e-997e-869b04afcc83</t>
+  </si>
+  <si>
+    <t>4399493e-e28f-4b22-a151-7e960a888646</t>
+  </si>
+  <si>
+    <t>8c7fb615-f9a1-4e17-a3b6-8cef379f6f18</t>
+  </si>
+  <si>
+    <t>6f798354-5803-4950-8a45-e628dbb418ca</t>
+  </si>
+  <si>
+    <t>91382d5b-ad18-4b01-bd87-7a6f8c5a35d1</t>
+  </si>
+  <si>
+    <t>9b634d84-435e-43bf-a18e-25fa7c0f889b</t>
+  </si>
+  <si>
+    <t>63939809-3006-4726-b7d6-f2693060e05d</t>
+  </si>
+  <si>
+    <t>036d5fbb-1c86-492c-9267-10c121396418</t>
+  </si>
+  <si>
+    <t>62fb7a33-ee9e-4b69-b55a-7c61906101f3</t>
+  </si>
+  <si>
+    <t>f27832fb-ee05-4a6d-992e-84af62e42c91</t>
+  </si>
+  <si>
+    <t>39a893e3-47fb-4021-9dbc-a58137d98baa</t>
+  </si>
+  <si>
+    <t>dd5e233d-30ca-43f8-91e3-57347fe3cd09</t>
   </si>
   <si>
     <t>643cff9260890a3b38e3130d</t>
@@ -1633,7 +2281,7 @@
         <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>476</v>
       </c>
       <c r="D2" t="n">
         <v>0.16666666666666666</v>
@@ -1657,7 +2305,7 @@
         <v>0.5540657439446367</v>
       </c>
       <c r="K2" t="n">
-        <v>0.663941642549798</v>
+        <v>0.6639416425497979</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -1762,7 +2410,7 @@
         <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="D3" t="n">
         <v>0.15384615384615385</v>
@@ -1786,7 +2434,7 @@
         <v>0.5549242424242424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6239337138699431</v>
+        <v>0.6239337138699432</v>
       </c>
       <c r="L3" t="n">
         <v>1.4137931034482758</v>
@@ -1891,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>478</v>
       </c>
       <c r="D4" t="n">
         <v>-0.4166666666666667</v>
@@ -1915,7 +2563,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548827</v>
+        <v>0.5123849057548832</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -2020,7 +2668,7 @@
         <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>479</v>
       </c>
       <c r="D5" t="n">
         <v>-0.07692307692307693</v>
@@ -2149,7 +2797,7 @@
         <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="D6" t="n">
         <v>0.15384615384615385</v>
@@ -2173,7 +2821,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535708</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -2278,7 +2926,7 @@
         <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>481</v>
       </c>
       <c r="D7" t="n">
         <v>0.7692307692307693</v>
@@ -2302,7 +2950,7 @@
         <v>0.6932</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7879781684831744</v>
+        <v>0.7879781684831743</v>
       </c>
       <c r="L7" t="n">
         <v>1.7567567567567568</v>
@@ -2407,7 +3055,7 @@
         <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>482</v>
       </c>
       <c r="D8" t="n">
         <v>-0.2857142857142857</v>
@@ -2431,7 +3079,7 @@
         <v>0.48422090729783035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5240781715789962</v>
+        <v>0.5240781715789964</v>
       </c>
       <c r="L8" t="n">
         <v>3.0526315789473686</v>
@@ -2536,7 +3184,7 @@
         <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>483</v>
       </c>
       <c r="D9" t="n">
         <v>-0.2857142857142857</v>
@@ -2560,7 +3208,7 @@
         <v>0.5157790927021696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6716332265208821</v>
+        <v>0.671633226520882</v>
       </c>
       <c r="L9" t="n">
         <v>1.6071428571428572</v>
@@ -2665,7 +3313,7 @@
         <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>484</v>
       </c>
       <c r="D10" t="n">
         <v>-0.4</v>
@@ -2689,7 +3337,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7311064553717898</v>
+        <v>0.7311064553717899</v>
       </c>
       <c r="L10" t="n">
         <v>1.5833333333333333</v>
@@ -2794,7 +3442,7 @@
         <v>269</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>485</v>
       </c>
       <c r="D11" t="n">
         <v>0.45454545454545453</v>
@@ -2818,7 +3466,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734854</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -2923,7 +3571,7 @@
         <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
@@ -2947,7 +3595,7 @@
         <v>0.39551357733175924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5831410357625653</v>
+        <v>0.5831410357625657</v>
       </c>
       <c r="L12" t="n">
         <v>1.8333333333333333</v>
@@ -3052,7 +3700,7 @@
         <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>487</v>
       </c>
       <c r="D13" t="n">
         <v>-0.14285714285714285</v>
@@ -3076,7 +3724,7 @@
         <v>0.6045364891518737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7089184579677156</v>
+        <v>0.7089184579677151</v>
       </c>
       <c r="L13" t="n">
         <v>3.3125</v>
@@ -3181,7 +3829,7 @@
         <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>488</v>
       </c>
       <c r="D14" t="n">
         <v>0.38461538461538464</v>
@@ -3310,7 +3958,7 @@
         <v>273</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>489</v>
       </c>
       <c r="D15" t="n">
         <v>-0.6</v>
@@ -3334,7 +3982,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6485997359573066</v>
+        <v>0.648599735957307</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -3439,7 +4087,7 @@
         <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>490</v>
       </c>
       <c r="D16" t="n">
         <v>0.6428571428571429</v>
@@ -3463,7 +4111,7 @@
         <v>0.5088757396449705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666137163722711</v>
+        <v>0.6666137163722712</v>
       </c>
       <c r="L16" t="n">
         <v>1.380952380952381</v>
@@ -3568,7 +4216,7 @@
         <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>491</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
@@ -3697,7 +4345,7 @@
         <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>492</v>
       </c>
       <c r="D18" t="n">
         <v>-0.15384615384615385</v>
@@ -3721,7 +4369,7 @@
         <v>0.592382154882155</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6336532010599386</v>
+        <v>0.6336532010599384</v>
       </c>
       <c r="L18" t="n">
         <v>2.225</v>
@@ -3826,7 +4474,7 @@
         <v>277</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>493</v>
       </c>
       <c r="D19" t="n">
         <v>-0.07692307692307693</v>
@@ -3850,7 +4498,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188713</v>
+        <v>0.6589640700188709</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -3955,7 +4603,7 @@
         <v>278</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>494</v>
       </c>
       <c r="D20" t="n">
         <v>0.23076923076923078</v>
@@ -4084,7 +4732,7 @@
         <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>495</v>
       </c>
       <c r="D21" t="n">
         <v>-0.15384615384615385</v>
@@ -4108,7 +4756,7 @@
         <v>0.375</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5302559999458111</v>
+        <v>0.5302559999458106</v>
       </c>
       <c r="L21" t="n">
         <v>1.7435897435897436</v>
@@ -4213,7 +4861,7 @@
         <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>496</v>
       </c>
       <c r="D22" t="n">
         <v>0.23076923076923078</v>
@@ -4237,7 +4885,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L22" t="n">
         <v>1.5</v>
@@ -4342,7 +4990,7 @@
         <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>497</v>
       </c>
       <c r="D23" t="n">
         <v>-0.5384615384615384</v>
@@ -4366,7 +5014,7 @@
         <v>0.6306818181818182</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7150518630750043</v>
+        <v>0.7150518630750038</v>
       </c>
       <c r="L23" t="n">
         <v>1.6111111111111112</v>
@@ -4471,7 +5119,7 @@
         <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>498</v>
       </c>
       <c r="D24" t="n">
         <v>0.16666666666666666</v>
@@ -4495,7 +5143,7 @@
         <v>0.47603305785123967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5698561812512468</v>
+        <v>0.569856181251246</v>
       </c>
       <c r="L24" t="n">
         <v>2.1379310344827585</v>
@@ -4600,7 +5248,7 @@
         <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>499</v>
       </c>
       <c r="D25" t="n">
         <v>-0.7692307692307693</v>
@@ -4624,7 +5272,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969774225128949</v>
+        <v>0.6969774225128945</v>
       </c>
       <c r="L25" t="n">
         <v>2.3333333333333335</v>
@@ -4729,7 +5377,7 @@
         <v>284</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>500</v>
       </c>
       <c r="D26" t="n">
         <v>0.45454545454545453</v>
@@ -4753,7 +5401,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5463907883734859</v>
+        <v>0.5463907883734856</v>
       </c>
       <c r="L26" t="n">
         <v>2.25</v>
@@ -4858,7 +5506,7 @@
         <v>285</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>501</v>
       </c>
       <c r="D27" t="n">
         <v>0.21052631578947367</v>
@@ -4882,7 +5530,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655476</v>
+        <v>0.7790594869655472</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -4987,7 +5635,7 @@
         <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>502</v>
       </c>
       <c r="D28" t="n">
         <v>0.38461538461538464</v>
@@ -5011,7 +5659,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5975282977967519</v>
+        <v>0.5975282977967517</v>
       </c>
       <c r="L28" t="n">
         <v>2.739130434782609</v>
@@ -5116,7 +5764,7 @@
         <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>503</v>
       </c>
       <c r="D29" t="n">
         <v>0.09090909090909091</v>
@@ -5140,7 +5788,7 @@
         <v>0.5955555555555555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6557866581553324</v>
+        <v>0.6557866581553319</v>
       </c>
       <c r="L29" t="n">
         <v>1.3846153846153846</v>
@@ -5245,7 +5893,7 @@
         <v>288</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>504</v>
       </c>
       <c r="D30" t="n">
         <v>-0.5333333333333333</v>
@@ -5374,7 +6022,7 @@
         <v>289</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>505</v>
       </c>
       <c r="D31" t="n">
         <v>0.3076923076923077</v>
@@ -5503,7 +6151,7 @@
         <v>290</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>506</v>
       </c>
       <c r="D32" t="n">
         <v>1.0833333333333333</v>
@@ -5527,7 +6175,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5879745215473362</v>
+        <v>0.5879745215473358</v>
       </c>
       <c r="L32" t="n">
         <v>1.6521739130434783</v>
@@ -5632,7 +6280,7 @@
         <v>291</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>507</v>
       </c>
       <c r="D33" t="n">
         <v>0.42857142857142855</v>
@@ -5656,7 +6304,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044616</v>
+        <v>0.7344728262044621</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -5761,7 +6409,7 @@
         <v>292</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>508</v>
       </c>
       <c r="D34" t="n">
         <v>-2.230769230769231</v>
@@ -5890,7 +6538,7 @@
         <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>509</v>
       </c>
       <c r="D35" t="n">
         <v>0.5555555555555556</v>
@@ -6019,7 +6667,7 @@
         <v>294</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>510</v>
       </c>
       <c r="D36" t="n">
         <v>0.25</v>
@@ -6043,7 +6691,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7706074640207379</v>
+        <v>0.7706074640207384</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -6148,7 +6796,7 @@
         <v>295</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>511</v>
       </c>
       <c r="D37" t="n">
         <v>0.0</v>
@@ -6172,7 +6820,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6151762894188577</v>
+        <v>0.6151762894188576</v>
       </c>
       <c r="L37" t="n">
         <v>1.434782608695652</v>
@@ -6277,7 +6925,7 @@
         <v>296</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>512</v>
       </c>
       <c r="D38" t="n">
         <v>0.1</v>
@@ -6301,7 +6949,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5275444087384659</v>
+        <v>0.527544408738466</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -6406,7 +7054,7 @@
         <v>297</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>513</v>
       </c>
       <c r="D39" t="n">
         <v>-0.07692307692307693</v>
@@ -6430,7 +7078,7 @@
         <v>0.7247474747474747</v>
       </c>
       <c r="K39" t="n">
-        <v>0.709277432438693</v>
+        <v>0.7092774324386929</v>
       </c>
       <c r="L39" t="n">
         <v>2.8947368421052633</v>
@@ -6535,7 +7183,7 @@
         <v>298</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>514</v>
       </c>
       <c r="D40" t="n">
         <v>-0.26666666666666666</v>
@@ -6664,7 +7312,7 @@
         <v>299</v>
       </c>
       <c r="C41" t="s">
-        <v>299</v>
+        <v>515</v>
       </c>
       <c r="D41" t="n">
         <v>-0.05263157894736842</v>
@@ -6688,7 +7336,7 @@
         <v>0.5119825708061002</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6982375941135741</v>
+        <v>0.6982375941135743</v>
       </c>
       <c r="L41" t="n">
         <v>1.8387096774193548</v>
@@ -6793,7 +7441,7 @@
         <v>300</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>516</v>
       </c>
       <c r="D42" t="n">
         <v>0.18181818181818182</v>
@@ -6922,7 +7570,7 @@
         <v>301</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>517</v>
       </c>
       <c r="D43" t="n">
         <v>0.0</v>
@@ -6946,7 +7594,7 @@
         <v>0.15222222222222223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3600236491383181</v>
+        <v>0.36002364913831847</v>
       </c>
       <c r="L43" t="n">
         <v>3.688888888888889</v>
@@ -7051,7 +7699,7 @@
         <v>302</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>518</v>
       </c>
       <c r="D44" t="n">
         <v>-1.0</v>
@@ -7180,7 +7828,7 @@
         <v>303</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>519</v>
       </c>
       <c r="D45" t="n">
         <v>-0.08333333333333333</v>
@@ -7204,7 +7852,7 @@
         <v>0.5305785123966942</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6239577903951071</v>
+        <v>0.6239577903951072</v>
       </c>
       <c r="L45" t="n">
         <v>4.086956521739131</v>
@@ -7309,7 +7957,7 @@
         <v>304</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="D46" t="n">
         <v>0.15384615384615385</v>
@@ -7333,7 +7981,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L46" t="n">
         <v>1.8823529411764706</v>
@@ -7438,7 +8086,7 @@
         <v>305</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>521</v>
       </c>
       <c r="D47" t="n">
         <v>-0.35714285714285715</v>
@@ -7567,7 +8215,7 @@
         <v>306</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>522</v>
       </c>
       <c r="D48" t="n">
         <v>-0.4</v>
@@ -7591,7 +8239,7 @@
         <v>0.4740973312401884</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6105152539206348</v>
+        <v>0.6105152539206347</v>
       </c>
       <c r="L48" t="n">
         <v>3.0588235294117645</v>
@@ -7696,7 +8344,7 @@
         <v>307</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>523</v>
       </c>
       <c r="D49" t="n">
         <v>0.2857142857142857</v>
@@ -7720,7 +8368,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5814868443938436</v>
+        <v>0.5814868443938437</v>
       </c>
       <c r="L49" t="n">
         <v>2.6666666666666665</v>
@@ -7825,7 +8473,7 @@
         <v>308</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>524</v>
       </c>
       <c r="D50" t="n">
         <v>-0.3076923076923077</v>
@@ -7849,7 +8497,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L50" t="n">
         <v>2.230769230769231</v>
@@ -7954,7 +8602,7 @@
         <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="D51" t="n">
         <v>0.15384615384615385</v>
@@ -7978,7 +8626,7 @@
         <v>0.3952020202020202</v>
       </c>
       <c r="K51" t="n">
-        <v>0.674127060769366</v>
+        <v>0.6741270607693666</v>
       </c>
       <c r="L51" t="n">
         <v>2.840909090909091</v>
@@ -8083,7 +8731,7 @@
         <v>310</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>526</v>
       </c>
       <c r="D52" t="n">
         <v>0.07692307692307693</v>
@@ -8107,7 +8755,7 @@
         <v>0.427651515151515</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5779846603424769</v>
+        <v>0.5779846603424768</v>
       </c>
       <c r="L52" t="n">
         <v>2.761904761904762</v>
@@ -8212,7 +8860,7 @@
         <v>311</v>
       </c>
       <c r="C53" t="s">
-        <v>311</v>
+        <v>527</v>
       </c>
       <c r="D53" t="n">
         <v>0.0</v>
@@ -8236,7 +8884,7 @@
         <v>0.41179496489953993</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6884792154861873</v>
+        <v>0.6884792154861872</v>
       </c>
       <c r="L53" t="n">
         <v>3.073394495412844</v>
@@ -8341,7 +8989,7 @@
         <v>312</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
+        <v>528</v>
       </c>
       <c r="D54" t="n">
         <v>0.8461538461538461</v>
@@ -8470,7 +9118,7 @@
         <v>313</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>529</v>
       </c>
       <c r="D55" t="n">
         <v>0.0</v>
@@ -8494,7 +9142,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.46634927952018657</v>
+        <v>0.46634927952018695</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -8599,7 +9247,7 @@
         <v>314</v>
       </c>
       <c r="C56" t="s">
-        <v>314</v>
+        <v>530</v>
       </c>
       <c r="D56" t="n">
         <v>-0.18181818181818182</v>
@@ -8623,7 +9271,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5361560968173984</v>
+        <v>0.5361560968173988</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -8728,7 +9376,7 @@
         <v>315</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>531</v>
       </c>
       <c r="D57" t="n">
         <v>0.0</v>
@@ -8752,7 +9400,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225933</v>
+        <v>0.7319858598225935</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -8857,7 +9505,7 @@
         <v>316</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>532</v>
       </c>
       <c r="D58" t="n">
         <v>0.0</v>
@@ -8881,7 +9529,7 @@
         <v>0.5435606060606061</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5000659719012394</v>
+        <v>0.5000659719012392</v>
       </c>
       <c r="L58" t="n">
         <v>2.1142857142857143</v>
@@ -8986,7 +9634,7 @@
         <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>317</v>
+        <v>533</v>
       </c>
       <c r="D59" t="n">
         <v>-0.18181818181818182</v>
@@ -9010,7 +9658,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734858</v>
       </c>
       <c r="L59" t="n">
         <v>2.6666666666666665</v>
@@ -9115,7 +9763,7 @@
         <v>318</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
+        <v>534</v>
       </c>
       <c r="D60" t="n">
         <v>-0.3076923076923077</v>
@@ -9139,7 +9787,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L60" t="n">
         <v>3.2142857142857144</v>
@@ -9244,7 +9892,7 @@
         <v>319</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>535</v>
       </c>
       <c r="D61" t="n">
         <v>0.26666666666666666</v>
@@ -9268,7 +9916,7 @@
         <v>0.7311616954474097</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7783152414918431</v>
+        <v>0.7783152414918428</v>
       </c>
       <c r="L61" t="n">
         <v>2.2</v>
@@ -9373,7 +10021,7 @@
         <v>320</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>536</v>
       </c>
       <c r="D62" t="n">
         <v>0.21428571428571427</v>
@@ -9397,7 +10045,7 @@
         <v>0.47008547008547</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6940693357949078</v>
+        <v>0.6940693357949076</v>
       </c>
       <c r="L62" t="n">
         <v>1.6</v>
@@ -9502,7 +10150,7 @@
         <v>321</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>537</v>
       </c>
       <c r="D63" t="n">
         <v>-0.23076923076923078</v>
@@ -9631,7 +10279,7 @@
         <v>322</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>538</v>
       </c>
       <c r="D64" t="n">
         <v>-0.46153846153846156</v>
@@ -9655,7 +10303,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5011924623437802</v>
+        <v>0.50119246234378</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -9760,7 +10408,7 @@
         <v>323</v>
       </c>
       <c r="C65" t="s">
-        <v>323</v>
+        <v>539</v>
       </c>
       <c r="D65" t="n">
         <v>-0.18181818181818182</v>
@@ -9784,7 +10432,7 @@
         <v>0.6711111111111111</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7291671489030339</v>
+        <v>0.7291671489030338</v>
       </c>
       <c r="L65" t="n">
         <v>2.1</v>
@@ -9889,7 +10537,7 @@
         <v>324</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>540</v>
       </c>
       <c r="D66" t="n">
         <v>0.5384615384615384</v>
@@ -9913,7 +10561,7 @@
         <v>0.6654040404040404</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7635469567479615</v>
+        <v>0.7635469567479614</v>
       </c>
       <c r="L66" t="n">
         <v>2.8275862068965516</v>
@@ -10018,7 +10666,7 @@
         <v>325</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>541</v>
       </c>
       <c r="D67" t="n">
         <v>0.45454545454545453</v>
@@ -10042,7 +10690,7 @@
         <v>0.4190778533635676</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6431167773064641</v>
+        <v>0.6431167773064627</v>
       </c>
       <c r="L67" t="n">
         <v>5.260416666666667</v>
@@ -10147,7 +10795,7 @@
         <v>326</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>542</v>
       </c>
       <c r="D68" t="n">
         <v>0.15384615384615385</v>
@@ -10171,7 +10819,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.58767512035357</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -10276,7 +10924,7 @@
         <v>327</v>
       </c>
       <c r="C69" t="s">
-        <v>327</v>
+        <v>543</v>
       </c>
       <c r="D69" t="n">
         <v>0.2857142857142857</v>
@@ -10300,7 +10948,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.594164149871912</v>
+        <v>0.5941641498719119</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -10405,7 +11053,7 @@
         <v>328</v>
       </c>
       <c r="C70" t="s">
-        <v>328</v>
+        <v>544</v>
       </c>
       <c r="D70" t="n">
         <v>0.0</v>
@@ -10429,7 +11077,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413058</v>
+        <v>0.6533878071413063</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -10534,7 +11182,7 @@
         <v>329</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>545</v>
       </c>
       <c r="D71" t="n">
         <v>0.15384615384615385</v>
@@ -10558,7 +11206,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7072557308151466</v>
+        <v>0.7072557308151463</v>
       </c>
       <c r="L71" t="n">
         <v>2.138888888888889</v>
@@ -10663,7 +11311,7 @@
         <v>330</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>546</v>
       </c>
       <c r="D72" t="n">
         <v>0.9375</v>
@@ -10687,7 +11335,7 @@
         <v>0.3380801209372638</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5993148357115515</v>
+        <v>0.5993148357115514</v>
       </c>
       <c r="L72" t="n">
         <v>3.3255813953488373</v>
@@ -10792,7 +11440,7 @@
         <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>331</v>
+        <v>547</v>
       </c>
       <c r="D73" t="n">
         <v>-0.2857142857142857</v>
@@ -10816,7 +11464,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6834720486951736</v>
+        <v>0.6834720486951733</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -10921,7 +11569,7 @@
         <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>548</v>
       </c>
       <c r="D74" t="n">
         <v>0.0</v>
@@ -10945,7 +11593,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139035</v>
+        <v>0.6724191809139025</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -11050,7 +11698,7 @@
         <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="D75" t="n">
         <v>-0.15384615384615385</v>
@@ -11074,7 +11722,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7204348544233159</v>
+        <v>0.7204348544233165</v>
       </c>
       <c r="L75" t="n">
         <v>3.217391304347826</v>
@@ -11179,7 +11827,7 @@
         <v>334</v>
       </c>
       <c r="C76" t="s">
-        <v>334</v>
+        <v>550</v>
       </c>
       <c r="D76" t="n">
         <v>0.08333333333333333</v>
@@ -11308,7 +11956,7 @@
         <v>335</v>
       </c>
       <c r="C77" t="s">
-        <v>335</v>
+        <v>551</v>
       </c>
       <c r="D77" t="n">
         <v>-0.38461538461538464</v>
@@ -11332,7 +11980,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7348667266172743</v>
+        <v>0.734866726617274</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -11437,7 +12085,7 @@
         <v>336</v>
       </c>
       <c r="C78" t="s">
-        <v>336</v>
+        <v>552</v>
       </c>
       <c r="D78" t="n">
         <v>0.5555555555555556</v>
@@ -11461,7 +12109,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795655</v>
+        <v>0.6977956124795663</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -11566,7 +12214,7 @@
         <v>337</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>553</v>
       </c>
       <c r="D79" t="n">
         <v>0.26666666666666666</v>
@@ -11590,7 +12238,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340568</v>
+        <v>0.6122818944340567</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -11695,7 +12343,7 @@
         <v>338</v>
       </c>
       <c r="C80" t="s">
-        <v>338</v>
+        <v>554</v>
       </c>
       <c r="D80" t="n">
         <v>-0.6666666666666666</v>
@@ -11824,7 +12472,7 @@
         <v>339</v>
       </c>
       <c r="C81" t="s">
-        <v>339</v>
+        <v>555</v>
       </c>
       <c r="D81" t="n">
         <v>-0.17647058823529413</v>
@@ -11848,7 +12496,7 @@
         <v>0.6578125</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6947587760390115</v>
+        <v>0.6947587760390114</v>
       </c>
       <c r="L81" t="n">
         <v>1.32</v>
@@ -11953,7 +12601,7 @@
         <v>340</v>
       </c>
       <c r="C82" t="s">
-        <v>340</v>
+        <v>556</v>
       </c>
       <c r="D82" t="n">
         <v>0.07692307692307693</v>
@@ -11977,7 +12625,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535701</v>
       </c>
       <c r="L82" t="n">
         <v>1.5714285714285714</v>
@@ -12082,7 +12730,7 @@
         <v>341</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>557</v>
       </c>
       <c r="D83" t="n">
         <v>0.23076923076923078</v>
@@ -12106,7 +12754,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.640954084372731</v>
+        <v>0.6409540843727307</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -12211,7 +12859,7 @@
         <v>342</v>
       </c>
       <c r="C84" t="s">
-        <v>342</v>
+        <v>558</v>
       </c>
       <c r="D84" t="n">
         <v>0.38461538461538464</v>
@@ -12340,7 +12988,7 @@
         <v>343</v>
       </c>
       <c r="C85" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
       <c r="D85" t="n">
         <v>0.6153846153846154</v>
@@ -12364,7 +13012,7 @@
         <v>0.6029040404040404</v>
       </c>
       <c r="K85" t="n">
-        <v>0.6568956134016283</v>
+        <v>0.6568956134016286</v>
       </c>
       <c r="L85" t="n">
         <v>1.8461538461538463</v>
@@ -12469,7 +13117,7 @@
         <v>344</v>
       </c>
       <c r="C86" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
       <c r="D86" t="n">
         <v>0.0</v>
@@ -12493,7 +13141,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L86" t="n">
         <v>2.8</v>
@@ -12598,7 +13246,7 @@
         <v>345</v>
       </c>
       <c r="C87" t="s">
-        <v>345</v>
+        <v>561</v>
       </c>
       <c r="D87" t="n">
         <v>-0.46153846153846156</v>
@@ -12622,7 +13270,7 @@
         <v>0.30871212121212116</v>
       </c>
       <c r="K87" t="n">
-        <v>0.496513305705136</v>
+        <v>0.49651330570513574</v>
       </c>
       <c r="L87" t="n">
         <v>4.52054794520548</v>
@@ -12727,7 +13375,7 @@
         <v>346</v>
       </c>
       <c r="C88" t="s">
-        <v>346</v>
+        <v>562</v>
       </c>
       <c r="D88" t="n">
         <v>0.10526315789473684</v>
@@ -12751,7 +13399,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7367093233042645</v>
+        <v>0.736709323304264</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -12856,7 +13504,7 @@
         <v>347</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>563</v>
       </c>
       <c r="D89" t="n">
         <v>-0.4666666666666667</v>
@@ -12880,7 +13528,7 @@
         <v>0.4768445839874411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.6412873504122637</v>
+        <v>0.6412873504122641</v>
       </c>
       <c r="L89" t="n">
         <v>3.5</v>
@@ -12985,7 +13633,7 @@
         <v>348</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
+        <v>564</v>
       </c>
       <c r="D90" t="n">
         <v>0.0</v>
@@ -13009,7 +13657,7 @@
         <v>0.6445707070707071</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5602897572581599</v>
+        <v>0.5602897572581598</v>
       </c>
       <c r="L90" t="n">
         <v>2.62</v>
@@ -13114,7 +13762,7 @@
         <v>349</v>
       </c>
       <c r="C91" t="s">
-        <v>349</v>
+        <v>565</v>
       </c>
       <c r="D91" t="n">
         <v>0.46153846153846156</v>
@@ -13138,7 +13786,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344025</v>
       </c>
       <c r="L91" t="n">
         <v>1.4166666666666667</v>
@@ -13243,7 +13891,7 @@
         <v>350</v>
       </c>
       <c r="C92" t="s">
-        <v>350</v>
+        <v>566</v>
       </c>
       <c r="D92" t="n">
         <v>0.0</v>
@@ -13267,7 +13915,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283309</v>
+        <v>0.5133587615283302</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -13372,7 +14020,7 @@
         <v>351</v>
       </c>
       <c r="C93" t="s">
-        <v>351</v>
+        <v>567</v>
       </c>
       <c r="D93" t="n">
         <v>0.8461538461538461</v>
@@ -13501,7 +14149,7 @@
         <v>352</v>
       </c>
       <c r="C94" t="s">
-        <v>352</v>
+        <v>568</v>
       </c>
       <c r="D94" t="n">
         <v>0.2631578947368421</v>
@@ -13630,7 +14278,7 @@
         <v>353</v>
       </c>
       <c r="C95" t="s">
-        <v>353</v>
+        <v>569</v>
       </c>
       <c r="D95" t="n">
         <v>-1.1333333333333333</v>
@@ -13654,7 +14302,7 @@
         <v>0.7460753532182104</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7659900814231754</v>
+        <v>0.7659900814231756</v>
       </c>
       <c r="L95" t="n">
         <v>3.4</v>
@@ -13759,7 +14407,7 @@
         <v>354</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>570</v>
       </c>
       <c r="D96" t="n">
         <v>0.23076923076923078</v>
@@ -13783,7 +14431,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836969</v>
+        <v>0.6367668552836966</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -13888,7 +14536,7 @@
         <v>355</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>571</v>
       </c>
       <c r="D97" t="n">
         <v>0.7333333333333333</v>
@@ -14017,7 +14665,7 @@
         <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>572</v>
       </c>
       <c r="D98" t="n">
         <v>0.6923076923076923</v>
@@ -14041,7 +14689,7 @@
         <v>0.4431818181818182</v>
       </c>
       <c r="K98" t="n">
-        <v>0.7366277355810056</v>
+        <v>0.7366277355810059</v>
       </c>
       <c r="L98" t="n">
         <v>3.3333333333333335</v>
@@ -14146,7 +14794,7 @@
         <v>357</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>573</v>
       </c>
       <c r="D99" t="n">
         <v>0.07692307692307693</v>
@@ -14170,7 +14818,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7333452858146047</v>
+        <v>0.733345285814605</v>
       </c>
       <c r="L99" t="n">
         <v>1.6206896551724137</v>
@@ -14275,7 +14923,7 @@
         <v>358</v>
       </c>
       <c r="C100" t="s">
-        <v>358</v>
+        <v>574</v>
       </c>
       <c r="D100" t="n">
         <v>0.6363636363636364</v>
@@ -14404,7 +15052,7 @@
         <v>359</v>
       </c>
       <c r="C101" t="s">
-        <v>359</v>
+        <v>575</v>
       </c>
       <c r="D101" t="n">
         <v>0.23076923076923078</v>
@@ -14428,7 +15076,7 @@
         <v>0.6957070707070707</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6952215599621803</v>
+        <v>0.6952215599621799</v>
       </c>
       <c r="L101" t="n">
         <v>1.85</v>
@@ -14533,7 +15181,7 @@
         <v>360</v>
       </c>
       <c r="C102" t="s">
-        <v>360</v>
+        <v>576</v>
       </c>
       <c r="D102" t="n">
         <v>0.3076923076923077</v>
@@ -14557,7 +15205,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5575331000518123</v>
+        <v>0.5575331000518126</v>
       </c>
       <c r="L102" t="n">
         <v>2.3157894736842106</v>
@@ -14662,7 +15310,7 @@
         <v>361</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>577</v>
       </c>
       <c r="D103" t="n">
         <v>0.75</v>
@@ -14686,7 +15334,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525599</v>
+        <v>0.7636558774525602</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -14791,7 +15439,7 @@
         <v>362</v>
       </c>
       <c r="C104" t="s">
-        <v>362</v>
+        <v>578</v>
       </c>
       <c r="D104" t="n">
         <v>0.0625</v>
@@ -14815,7 +15463,7 @@
         <v>0.10858956916099773</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3172448330481044</v>
+        <v>0.3172448330481039</v>
       </c>
       <c r="L104" t="n">
         <v>4.586466165413534</v>
@@ -14920,7 +15568,7 @@
         <v>363</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
+        <v>579</v>
       </c>
       <c r="D105" t="n">
         <v>0.0</v>
@@ -14944,7 +15592,7 @@
         <v>0.44427001569858715</v>
       </c>
       <c r="K105" t="n">
-        <v>0.6286245873483658</v>
+        <v>0.6286245873483653</v>
       </c>
       <c r="L105" t="n">
         <v>2.9302325581395348</v>
@@ -15047,7 +15695,7 @@
         <v>364</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>580</v>
       </c>
       <c r="D106" t="n">
         <v>0.9375</v>
@@ -15071,7 +15719,7 @@
         <v>0.45523809523809516</v>
       </c>
       <c r="K106" t="n">
-        <v>0.674093526997322</v>
+        <v>0.6740935269973216</v>
       </c>
       <c r="L106" t="n">
         <v>2.6444444444444444</v>
@@ -15176,7 +15824,7 @@
         <v>365</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>581</v>
       </c>
       <c r="D107" t="n">
         <v>0.6153846153846154</v>
@@ -15200,7 +15848,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7051532762746362</v>
+        <v>0.7051532762746365</v>
       </c>
       <c r="L107" t="n">
         <v>1.6857142857142857</v>
@@ -15305,7 +15953,7 @@
         <v>366</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>582</v>
       </c>
       <c r="D108" t="n">
         <v>-0.125</v>
@@ -15434,7 +16082,7 @@
         <v>367</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
+        <v>583</v>
       </c>
       <c r="D109" t="n">
         <v>0.23076923076923078</v>
@@ -15458,7 +16106,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.6635512895573344</v>
+        <v>0.6635512895573338</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -15563,7 +16211,7 @@
         <v>368</v>
       </c>
       <c r="C110" t="s">
-        <v>368</v>
+        <v>584</v>
       </c>
       <c r="D110" t="n">
         <v>1.3076923076923077</v>
@@ -15587,7 +16235,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7523172964895064</v>
+        <v>0.7523172964895065</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -15692,7 +16340,7 @@
         <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>369</v>
+        <v>585</v>
       </c>
       <c r="D111" t="n">
         <v>0.15384615384615385</v>
@@ -15716,7 +16364,7 @@
         <v>0.4696969696969697</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6496922600715599</v>
+        <v>0.6496922600715602</v>
       </c>
       <c r="L111" t="n">
         <v>2.4242424242424243</v>
@@ -15821,7 +16469,7 @@
         <v>370</v>
       </c>
       <c r="C112" t="s">
-        <v>370</v>
+        <v>586</v>
       </c>
       <c r="D112" t="n">
         <v>-0.5384615384615384</v>
@@ -15845,7 +16493,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -15950,7 +16598,7 @@
         <v>371</v>
       </c>
       <c r="C113" t="s">
-        <v>371</v>
+        <v>587</v>
       </c>
       <c r="D113" t="n">
         <v>0.9230769230769231</v>
@@ -15974,7 +16622,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5586914518729811</v>
+        <v>0.5586914518729814</v>
       </c>
       <c r="L113" t="n">
         <v>2.1846153846153844</v>
@@ -16079,7 +16727,7 @@
         <v>372</v>
       </c>
       <c r="C114" t="s">
-        <v>372</v>
+        <v>588</v>
       </c>
       <c r="D114" t="n">
         <v>-0.38461538461538464</v>
@@ -16103,7 +16751,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -16208,7 +16856,7 @@
         <v>373</v>
       </c>
       <c r="C115" t="s">
-        <v>373</v>
+        <v>589</v>
       </c>
       <c r="D115" t="n">
         <v>0.6153846153846154</v>
@@ -16337,7 +16985,7 @@
         <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>590</v>
       </c>
       <c r="D116" t="n">
         <v>0.5384615384615384</v>
@@ -16361,7 +17009,7 @@
         <v>0.6742424242424242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.5739699008713616</v>
+        <v>0.5739699008713615</v>
       </c>
       <c r="L116" t="n">
         <v>2.4</v>
@@ -16466,7 +17114,7 @@
         <v>375</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>591</v>
       </c>
       <c r="D117" t="n">
         <v>-0.1</v>
@@ -16490,7 +17138,7 @@
         <v>0.32407407407407407</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4609477527835928</v>
+        <v>0.4609477527835929</v>
       </c>
       <c r="L117" t="n">
         <v>1.4444444444444444</v>
@@ -16595,7 +17243,7 @@
         <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>376</v>
+        <v>592</v>
       </c>
       <c r="D118" t="n">
         <v>0.15384615384615385</v>
@@ -16619,7 +17267,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229593</v>
+        <v>0.7146893795229597</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -16724,7 +17372,7 @@
         <v>377</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>593</v>
       </c>
       <c r="D119" t="n">
         <v>0.0</v>
@@ -16748,7 +17396,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K119" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L119" t="n">
         <v>2.3</v>
@@ -16853,7 +17501,7 @@
         <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>378</v>
+        <v>594</v>
       </c>
       <c r="D120" t="n">
         <v>-0.3076923076923077</v>
@@ -16877,7 +17525,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K120" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L120" t="n">
         <v>1.4545454545454546</v>
@@ -16982,7 +17630,7 @@
         <v>379</v>
       </c>
       <c r="C121" t="s">
-        <v>379</v>
+        <v>595</v>
       </c>
       <c r="D121" t="n">
         <v>0.21428571428571427</v>
@@ -17006,7 +17654,7 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6452581025770671</v>
+        <v>0.6452581025770664</v>
       </c>
       <c r="L121" t="n">
         <v>2.6</v>
@@ -17111,7 +17759,7 @@
         <v>380</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>596</v>
       </c>
       <c r="D122" t="n">
         <v>0.034482758620689655</v>
@@ -17135,7 +17783,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.7551377062685432</v>
+        <v>0.7551377062685437</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -17240,7 +17888,7 @@
         <v>381</v>
       </c>
       <c r="C123" t="s">
-        <v>381</v>
+        <v>597</v>
       </c>
       <c r="D123" t="n">
         <v>0.25</v>
@@ -17264,7 +17912,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6381119018901549</v>
+        <v>0.6381119018901548</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -17369,7 +18017,7 @@
         <v>382</v>
       </c>
       <c r="C124" t="s">
-        <v>382</v>
+        <v>598</v>
       </c>
       <c r="D124" t="n">
         <v>-0.15384615384615385</v>
@@ -17393,7 +18041,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L124" t="n">
         <v>1.5714285714285714</v>
@@ -17498,7 +18146,7 @@
         <v>383</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>599</v>
       </c>
       <c r="D125" t="n">
         <v>0.6363636363636364</v>
@@ -17522,7 +18170,7 @@
         <v>0.5066666666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5816584263908309</v>
+        <v>0.5816584263908336</v>
       </c>
       <c r="L125" t="n">
         <v>2.2916666666666665</v>
@@ -17627,7 +18275,7 @@
         <v>384</v>
       </c>
       <c r="C126" t="s">
-        <v>384</v>
+        <v>600</v>
       </c>
       <c r="D126" t="n">
         <v>0.0</v>
@@ -17651,7 +18299,7 @@
         <v>0.6073232323232324</v>
       </c>
       <c r="K126" t="n">
-        <v>0.6509486017579396</v>
+        <v>0.6509486017579401</v>
       </c>
       <c r="L126" t="n">
         <v>1.6470588235294117</v>
@@ -17756,7 +18404,7 @@
         <v>385</v>
       </c>
       <c r="C127" t="s">
-        <v>385</v>
+        <v>601</v>
       </c>
       <c r="D127" t="n">
         <v>-0.2</v>
@@ -17885,7 +18533,7 @@
         <v>386</v>
       </c>
       <c r="C128" t="s">
-        <v>386</v>
+        <v>602</v>
       </c>
       <c r="D128" t="n">
         <v>-0.05</v>
@@ -17909,7 +18557,7 @@
         <v>0.5684826100338565</v>
       </c>
       <c r="K128" t="n">
-        <v>0.715582759968292</v>
+        <v>0.7155827599682921</v>
       </c>
       <c r="L128" t="n">
         <v>2.875</v>
@@ -18014,7 +18662,7 @@
         <v>387</v>
       </c>
       <c r="C129" t="s">
-        <v>387</v>
+        <v>603</v>
       </c>
       <c r="D129" t="n">
         <v>0.5</v>
@@ -18038,7 +18686,7 @@
         <v>0.7268244575936884</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7829550888228453</v>
+        <v>0.7829550888228454</v>
       </c>
       <c r="L129" t="n">
         <v>1.6285714285714286</v>
@@ -18143,7 +18791,7 @@
         <v>388</v>
       </c>
       <c r="C130" t="s">
-        <v>388</v>
+        <v>604</v>
       </c>
       <c r="D130" t="n">
         <v>0.8461538461538461</v>
@@ -18167,7 +18815,7 @@
         <v>0.25570586820586816</v>
       </c>
       <c r="K130" t="n">
-        <v>0.3337674828751591</v>
+        <v>0.3337674828751594</v>
       </c>
       <c r="L130" t="n">
         <v>2.517857142857143</v>
@@ -18272,7 +18920,7 @@
         <v>389</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
+        <v>605</v>
       </c>
       <c r="D131" t="n">
         <v>1.2</v>
@@ -18296,7 +18944,7 @@
         <v>0.45524691358024694</v>
       </c>
       <c r="K131" t="n">
-        <v>0.4956351539101179</v>
+        <v>0.4956351539101175</v>
       </c>
       <c r="L131" t="n">
         <v>3.5714285714285716</v>
@@ -18401,7 +19049,7 @@
         <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>606</v>
       </c>
       <c r="D132" t="n">
         <v>0.1</v>
@@ -18425,7 +19073,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5706662038348006</v>
+        <v>0.5706662038348004</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -18530,7 +19178,7 @@
         <v>391</v>
       </c>
       <c r="C133" t="s">
-        <v>391</v>
+        <v>607</v>
       </c>
       <c r="D133" t="n">
         <v>1.4166666666666667</v>
@@ -18554,7 +19202,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5879745215473364</v>
+        <v>0.587974521547336</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -18659,7 +19307,7 @@
         <v>392</v>
       </c>
       <c r="C134" t="s">
-        <v>392</v>
+        <v>608</v>
       </c>
       <c r="D134" t="n">
         <v>0.0625</v>
@@ -18683,7 +19331,7 @@
         <v>0.4723809523809524</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6599352246598524</v>
+        <v>0.6599352246598525</v>
       </c>
       <c r="L134" t="n">
         <v>1.763157894736842</v>
@@ -18788,7 +19436,7 @@
         <v>393</v>
       </c>
       <c r="C135" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
       <c r="D135" t="n">
         <v>1.0</v>
@@ -18812,7 +19460,7 @@
         <v>0.7229199372056515</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7085449778358618</v>
+        <v>0.7085449778358615</v>
       </c>
       <c r="L135" t="n">
         <v>3.2708333333333335</v>
@@ -18917,7 +19565,7 @@
         <v>394</v>
       </c>
       <c r="C136" t="s">
-        <v>394</v>
+        <v>610</v>
       </c>
       <c r="D136" t="n">
         <v>0.7692307692307693</v>
@@ -18941,7 +19589,7 @@
         <v>0.5890151515151515</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7090782071298439</v>
+        <v>0.7090782071298444</v>
       </c>
       <c r="L136" t="n">
         <v>1.5517241379310345</v>
@@ -19046,7 +19694,7 @@
         <v>395</v>
       </c>
       <c r="C137" t="s">
-        <v>395</v>
+        <v>611</v>
       </c>
       <c r="D137" t="n">
         <v>-0.1</v>
@@ -19070,7 +19718,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.4520344088773761</v>
+        <v>0.45203440887737656</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -19175,7 +19823,7 @@
         <v>396</v>
       </c>
       <c r="C138" t="s">
-        <v>396</v>
+        <v>612</v>
       </c>
       <c r="D138" t="n">
         <v>0.25</v>
@@ -19199,7 +19847,7 @@
         <v>0.566984126984127</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7320303925267773</v>
+        <v>0.732030392526777</v>
       </c>
       <c r="L138" t="n">
         <v>3.1666666666666665</v>
@@ -19304,7 +19952,7 @@
         <v>397</v>
       </c>
       <c r="C139" t="s">
-        <v>397</v>
+        <v>613</v>
       </c>
       <c r="D139" t="n">
         <v>0.07692307692307693</v>
@@ -19328,7 +19976,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6781292256774815</v>
+        <v>0.6781292256774814</v>
       </c>
       <c r="L139" t="n">
         <v>3.130434782608696</v>
@@ -19433,7 +20081,7 @@
         <v>398</v>
       </c>
       <c r="C140" t="s">
-        <v>398</v>
+        <v>614</v>
       </c>
       <c r="D140" t="n">
         <v>0.23076923076923078</v>
@@ -19457,7 +20105,7 @@
         <v>0.44002525252525254</v>
       </c>
       <c r="K140" t="n">
-        <v>0.6316313081674267</v>
+        <v>0.6316313081674266</v>
       </c>
       <c r="L140" t="n">
         <v>2.257142857142857</v>
@@ -19562,7 +20210,7 @@
         <v>399</v>
       </c>
       <c r="C141" t="s">
-        <v>399</v>
+        <v>615</v>
       </c>
       <c r="D141" t="n">
         <v>0.6428571428571429</v>
@@ -19691,7 +20339,7 @@
         <v>400</v>
       </c>
       <c r="C142" t="s">
-        <v>400</v>
+        <v>616</v>
       </c>
       <c r="D142" t="n">
         <v>-0.15384615384615385</v>
@@ -19715,7 +20363,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K142" t="n">
-        <v>0.6084726494563819</v>
+        <v>0.6084726494563822</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -19820,7 +20468,7 @@
         <v>401</v>
       </c>
       <c r="C143" t="s">
-        <v>401</v>
+        <v>617</v>
       </c>
       <c r="D143" t="n">
         <v>0.46153846153846156</v>
@@ -19844,7 +20492,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K143" t="n">
-        <v>0.6749707165392151</v>
+        <v>0.674970716539215</v>
       </c>
       <c r="L143" t="n">
         <v>2.4</v>
@@ -19949,7 +20597,7 @@
         <v>402</v>
       </c>
       <c r="C144" t="s">
-        <v>402</v>
+        <v>618</v>
       </c>
       <c r="D144" t="n">
         <v>-0.07142857142857142</v>
@@ -19973,7 +20621,7 @@
         <v>0.4447731755424063</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6906559137776306</v>
+        <v>0.6906559137776304</v>
       </c>
       <c r="L144" t="n">
         <v>2.2051282051282053</v>
@@ -20078,7 +20726,7 @@
         <v>403</v>
       </c>
       <c r="C145" t="s">
-        <v>403</v>
+        <v>619</v>
       </c>
       <c r="D145" t="n">
         <v>1.5</v>
@@ -20203,7 +20851,7 @@
         <v>404</v>
       </c>
       <c r="C146" t="s">
-        <v>404</v>
+        <v>620</v>
       </c>
       <c r="D146" t="n">
         <v>-0.17647058823529413</v>
@@ -20227,7 +20875,7 @@
         <v>0.5901041666666667</v>
       </c>
       <c r="K146" t="n">
-        <v>0.587546851229667</v>
+        <v>0.5875468512296674</v>
       </c>
       <c r="L146" t="n">
         <v>3.3137254901960786</v>
@@ -20332,7 +20980,7 @@
         <v>405</v>
       </c>
       <c r="C147" t="s">
-        <v>405</v>
+        <v>621</v>
       </c>
       <c r="D147" t="n">
         <v>0.23076923076923078</v>
@@ -20461,7 +21109,7 @@
         <v>406</v>
       </c>
       <c r="C148" t="s">
-        <v>406</v>
+        <v>622</v>
       </c>
       <c r="D148" t="n">
         <v>-0.13333333333333333</v>
@@ -20485,7 +21133,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K148" t="n">
-        <v>0.6575429501898361</v>
+        <v>0.6575429501898368</v>
       </c>
       <c r="L148" t="n">
         <v>3.15</v>
@@ -20590,7 +21238,7 @@
         <v>407</v>
       </c>
       <c r="C149" t="s">
-        <v>407</v>
+        <v>623</v>
       </c>
       <c r="D149" t="n">
         <v>-0.3</v>
@@ -20614,7 +21262,7 @@
         <v>0.4660493827160494</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5348559786120486</v>
+        <v>0.5348559786120487</v>
       </c>
       <c r="L149" t="n">
         <v>1.3571428571428572</v>
@@ -20719,7 +21367,7 @@
         <v>408</v>
       </c>
       <c r="C150" t="s">
-        <v>408</v>
+        <v>624</v>
       </c>
       <c r="D150" t="n">
         <v>-0.35294117647058826</v>
@@ -20743,7 +21391,7 @@
         <v>0.6640625</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8065624356453036</v>
+        <v>0.8065624356453037</v>
       </c>
       <c r="L150" t="n">
         <v>1.7837837837837838</v>
@@ -20848,7 +21496,7 @@
         <v>409</v>
       </c>
       <c r="C151" t="s">
-        <v>409</v>
+        <v>625</v>
       </c>
       <c r="D151" t="n">
         <v>-0.42857142857142855</v>
@@ -20977,7 +21625,7 @@
         <v>410</v>
       </c>
       <c r="C152" t="s">
-        <v>410</v>
+        <v>626</v>
       </c>
       <c r="D152" t="n">
         <v>0.6666666666666666</v>
@@ -21001,7 +21649,7 @@
         <v>0.6115702479338843</v>
       </c>
       <c r="K152" t="n">
-        <v>0.6415878375918009</v>
+        <v>0.641587837591801</v>
       </c>
       <c r="L152" t="n">
         <v>3.413793103448276</v>
@@ -21106,7 +21754,7 @@
         <v>411</v>
       </c>
       <c r="C153" t="s">
-        <v>411</v>
+        <v>627</v>
       </c>
       <c r="D153" t="n">
         <v>0.3</v>
@@ -21130,7 +21778,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K153" t="n">
-        <v>0.662452460082303</v>
+        <v>0.6624524600823034</v>
       </c>
       <c r="L153" t="n">
         <v>1.5757575757575757</v>
@@ -21231,7 +21879,7 @@
         <v>412</v>
       </c>
       <c r="C154" t="s">
-        <v>412</v>
+        <v>628</v>
       </c>
       <c r="D154" t="n">
         <v>0.0</v>
@@ -21255,7 +21903,7 @@
         <v>0.5700757575757576</v>
       </c>
       <c r="K154" t="n">
-        <v>0.6520856219376466</v>
+        <v>0.6520856219376469</v>
       </c>
       <c r="L154" t="n">
         <v>3.21875</v>
@@ -21358,7 +22006,7 @@
         <v>413</v>
       </c>
       <c r="C155" t="s">
-        <v>413</v>
+        <v>629</v>
       </c>
       <c r="D155" t="n">
         <v>0.6923076923076923</v>
@@ -21487,7 +22135,7 @@
         <v>414</v>
       </c>
       <c r="C156" t="s">
-        <v>414</v>
+        <v>630</v>
       </c>
       <c r="D156" t="n">
         <v>0.07692307692307693</v>
@@ -21511,7 +22159,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6427389230910834</v>
+        <v>0.6427389230910836</v>
       </c>
       <c r="L156" t="n">
         <v>2.1538461538461537</v>
@@ -21616,7 +22264,7 @@
         <v>415</v>
       </c>
       <c r="C157" t="s">
-        <v>415</v>
+        <v>631</v>
       </c>
       <c r="D157" t="n">
         <v>0.36363636363636365</v>
@@ -21640,7 +22288,7 @@
         <v>0.5488888888888889</v>
       </c>
       <c r="K157" t="n">
-        <v>0.6371126306987885</v>
+        <v>0.6371126306987883</v>
       </c>
       <c r="L157" t="n">
         <v>2.25</v>
@@ -21745,7 +22393,7 @@
         <v>416</v>
       </c>
       <c r="C158" t="s">
-        <v>416</v>
+        <v>632</v>
       </c>
       <c r="D158" t="n">
         <v>0.15384615384615385</v>
@@ -21769,7 +22417,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K158" t="n">
-        <v>0.5975282977967519</v>
+        <v>0.5975282977967518</v>
       </c>
       <c r="L158" t="n">
         <v>3.5294117647058822</v>
@@ -21874,7 +22522,7 @@
         <v>417</v>
       </c>
       <c r="C159" t="s">
-        <v>417</v>
+        <v>633</v>
       </c>
       <c r="D159" t="n">
         <v>1.2857142857142858</v>
@@ -21898,7 +22546,7 @@
         <v>0.46055226824457596</v>
       </c>
       <c r="K159" t="n">
-        <v>0.5603887884237558</v>
+        <v>0.560388788423756</v>
       </c>
       <c r="L159" t="n">
         <v>1.6388888888888888</v>
@@ -22003,7 +22651,7 @@
         <v>418</v>
       </c>
       <c r="C160" t="s">
-        <v>418</v>
+        <v>634</v>
       </c>
       <c r="D160" t="n">
         <v>0.5384615384615384</v>
@@ -22027,7 +22675,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535701</v>
       </c>
       <c r="L160" t="n">
         <v>1.4</v>
@@ -22132,7 +22780,7 @@
         <v>419</v>
       </c>
       <c r="C161" t="s">
-        <v>419</v>
+        <v>635</v>
       </c>
       <c r="D161" t="n">
         <v>0.15384615384615385</v>
@@ -22261,7 +22909,7 @@
         <v>420</v>
       </c>
       <c r="C162" t="s">
-        <v>420</v>
+        <v>636</v>
       </c>
       <c r="D162" t="n">
         <v>0.75</v>
@@ -22285,7 +22933,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K162" t="n">
-        <v>0.6383479422507058</v>
+        <v>0.6383479422507067</v>
       </c>
       <c r="L162" t="n">
         <v>2.933333333333333</v>
@@ -22390,7 +23038,7 @@
         <v>421</v>
       </c>
       <c r="C163" t="s">
-        <v>421</v>
+        <v>637</v>
       </c>
       <c r="D163" t="n">
         <v>-0.4166666666666667</v>
@@ -22519,7 +23167,7 @@
         <v>422</v>
       </c>
       <c r="C164" t="s">
-        <v>422</v>
+        <v>638</v>
       </c>
       <c r="D164" t="n">
         <v>0.14814814814814814</v>
@@ -22543,7 +23191,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6427897696765309</v>
+        <v>0.6427897696765311</v>
       </c>
       <c r="L164" t="n">
         <v>4.3446808510638295</v>
@@ -22648,7 +23296,7 @@
         <v>423</v>
       </c>
       <c r="C165" t="s">
-        <v>423</v>
+        <v>639</v>
       </c>
       <c r="D165" t="n">
         <v>0.15384615384615385</v>
@@ -22777,7 +23425,7 @@
         <v>424</v>
       </c>
       <c r="C166" t="s">
-        <v>424</v>
+        <v>640</v>
       </c>
       <c r="D166" t="n">
         <v>-0.15384615384615385</v>
@@ -22801,7 +23449,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K166" t="n">
-        <v>0.7295283117584027</v>
+        <v>0.7295283117584025</v>
       </c>
       <c r="L166" t="n">
         <v>1.8636363636363635</v>
@@ -22906,7 +23554,7 @@
         <v>425</v>
       </c>
       <c r="C167" t="s">
-        <v>425</v>
+        <v>641</v>
       </c>
       <c r="D167" t="n">
         <v>-0.5454545454545454</v>
@@ -23035,7 +23683,7 @@
         <v>426</v>
       </c>
       <c r="C168" t="s">
-        <v>426</v>
+        <v>642</v>
       </c>
       <c r="D168" t="n">
         <v>0.38461538461538464</v>
@@ -23059,7 +23707,7 @@
         <v>0.5069444444444444</v>
       </c>
       <c r="K168" t="n">
-        <v>0.6272376357723487</v>
+        <v>0.6272376357723489</v>
       </c>
       <c r="L168" t="n">
         <v>3.111111111111111</v>
@@ -23164,7 +23812,7 @@
         <v>427</v>
       </c>
       <c r="C169" t="s">
-        <v>427</v>
+        <v>643</v>
       </c>
       <c r="D169" t="n">
         <v>-0.35714285714285715</v>
@@ -23188,7 +23836,7 @@
         <v>0.6055226824457594</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7672855417890356</v>
+        <v>0.7672855417890349</v>
       </c>
       <c r="L169" t="n">
         <v>1.8611111111111112</v>
@@ -23293,7 +23941,7 @@
         <v>428</v>
       </c>
       <c r="C170" t="s">
-        <v>428</v>
+        <v>644</v>
       </c>
       <c r="D170" t="n">
         <v>0.0</v>
@@ -23317,7 +23965,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K170" t="n">
-        <v>0.43324632030046983</v>
+        <v>0.43324632030047006</v>
       </c>
       <c r="L170" t="n">
         <v>2.1578947368421053</v>
@@ -23420,7 +24068,7 @@
         <v>429</v>
       </c>
       <c r="C171" t="s">
-        <v>429</v>
+        <v>645</v>
       </c>
       <c r="D171" t="n">
         <v>0.3684210526315789</v>
@@ -23444,7 +24092,7 @@
         <v>0.3541273299443234</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5429630923949835</v>
+        <v>0.5429630923949836</v>
       </c>
       <c r="L171" t="n">
         <v>4.90990990990991</v>
@@ -23549,7 +24197,7 @@
         <v>430</v>
       </c>
       <c r="C172" t="s">
-        <v>430</v>
+        <v>646</v>
       </c>
       <c r="D172" t="n">
         <v>0.5</v>
@@ -23678,7 +24326,7 @@
         <v>431</v>
       </c>
       <c r="C173" t="s">
-        <v>431</v>
+        <v>647</v>
       </c>
       <c r="D173" t="n">
         <v>-0.07692307692307693</v>
@@ -23702,7 +24350,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K173" t="n">
-        <v>0.611378387766021</v>
+        <v>0.6113783877660205</v>
       </c>
       <c r="L173" t="n">
         <v>1.105263157894737</v>
@@ -23807,7 +24455,7 @@
         <v>432</v>
       </c>
       <c r="C174" t="s">
-        <v>432</v>
+        <v>648</v>
       </c>
       <c r="D174" t="n">
         <v>0.15384615384615385</v>
@@ -23936,7 +24584,7 @@
         <v>433</v>
       </c>
       <c r="C175" t="s">
-        <v>433</v>
+        <v>649</v>
       </c>
       <c r="D175" t="n">
         <v>0.9230769230769231</v>
@@ -23960,7 +24608,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6749707165392154</v>
+        <v>0.6749707165392151</v>
       </c>
       <c r="L175" t="n">
         <v>2.5</v>
@@ -24065,7 +24713,7 @@
         <v>434</v>
       </c>
       <c r="C176" t="s">
-        <v>434</v>
+        <v>650</v>
       </c>
       <c r="D176" t="n">
         <v>0.0</v>
@@ -24089,7 +24737,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K176" t="n">
-        <v>0.5497246451155325</v>
+        <v>0.5497246451155328</v>
       </c>
       <c r="L176" t="n">
         <v>1.1875</v>
@@ -24194,7 +24842,7 @@
         <v>435</v>
       </c>
       <c r="C177" t="s">
-        <v>435</v>
+        <v>651</v>
       </c>
       <c r="D177" t="n">
         <v>0.9230769230769231</v>
@@ -24218,7 +24866,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K177" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344025</v>
       </c>
       <c r="L177" t="n">
         <v>3.8666666666666667</v>
@@ -24323,7 +24971,7 @@
         <v>436</v>
       </c>
       <c r="C178" t="s">
-        <v>436</v>
+        <v>652</v>
       </c>
       <c r="D178" t="n">
         <v>0.23076923076923078</v>
@@ -24452,7 +25100,7 @@
         <v>437</v>
       </c>
       <c r="C179" t="s">
-        <v>437</v>
+        <v>653</v>
       </c>
       <c r="D179" t="n">
         <v>0.35714285714285715</v>
@@ -24476,7 +25124,7 @@
         <v>0.6893491124260355</v>
       </c>
       <c r="K179" t="n">
-        <v>0.7726232323304819</v>
+        <v>0.7726232323304822</v>
       </c>
       <c r="L179" t="n">
         <v>1.434782608695652</v>
@@ -24581,7 +25229,7 @@
         <v>438</v>
       </c>
       <c r="C180" t="s">
-        <v>438</v>
+        <v>654</v>
       </c>
       <c r="D180" t="n">
         <v>0.3</v>
@@ -24605,7 +25253,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K180" t="n">
-        <v>0.653685529929022</v>
+        <v>0.6536855299290221</v>
       </c>
       <c r="L180" t="n">
         <v>1.4375</v>
@@ -24710,7 +25358,7 @@
         <v>439</v>
       </c>
       <c r="C181" t="s">
-        <v>439</v>
+        <v>655</v>
       </c>
       <c r="D181" t="n">
         <v>0.42857142857142855</v>
@@ -24734,7 +25382,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K181" t="n">
-        <v>0.6247556789684461</v>
+        <v>0.6247556789684459</v>
       </c>
       <c r="L181" t="n">
         <v>3.36</v>
@@ -24839,7 +25487,7 @@
         <v>440</v>
       </c>
       <c r="C182" t="s">
-        <v>440</v>
+        <v>656</v>
       </c>
       <c r="D182" t="n">
         <v>-0.08333333333333333</v>
@@ -24863,7 +25511,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6848446400614066</v>
+        <v>0.6848446400614068</v>
       </c>
       <c r="L182" t="n">
         <v>1.4210526315789473</v>
@@ -24968,7 +25616,7 @@
         <v>441</v>
       </c>
       <c r="C183" t="s">
-        <v>441</v>
+        <v>657</v>
       </c>
       <c r="D183" t="n">
         <v>0.07692307692307693</v>
@@ -24992,7 +25640,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K183" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L183" t="n">
         <v>1.6470588235294117</v>
@@ -25097,7 +25745,7 @@
         <v>442</v>
       </c>
       <c r="C184" t="s">
-        <v>442</v>
+        <v>658</v>
       </c>
       <c r="D184" t="n">
         <v>-0.23529411764705882</v>
@@ -25121,7 +25769,7 @@
         <v>0.5640625</v>
       </c>
       <c r="K184" t="n">
-        <v>0.8081356852470568</v>
+        <v>0.8081356852470567</v>
       </c>
       <c r="L184" t="n">
         <v>1.7906976744186047</v>
@@ -25226,7 +25874,7 @@
         <v>443</v>
       </c>
       <c r="C185" t="s">
-        <v>443</v>
+        <v>659</v>
       </c>
       <c r="D185" t="n">
         <v>0.9230769230769231</v>
@@ -25250,7 +25898,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K185" t="n">
-        <v>0.5921570582603477</v>
+        <v>0.5921570582603476</v>
       </c>
       <c r="L185" t="n">
         <v>1.6153846153846154</v>
@@ -25355,7 +26003,7 @@
         <v>444</v>
       </c>
       <c r="C186" t="s">
-        <v>444</v>
+        <v>660</v>
       </c>
       <c r="D186" t="n">
         <v>0.38461538461538464</v>
@@ -25379,7 +26027,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K186" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L186" t="n">
         <v>2.25</v>
@@ -25484,7 +26132,7 @@
         <v>445</v>
       </c>
       <c r="C187" t="s">
-        <v>445</v>
+        <v>661</v>
       </c>
       <c r="D187" t="n">
         <v>-0.38461538461538464</v>
@@ -25508,7 +26156,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K187" t="n">
-        <v>0.6781292256774807</v>
+        <v>0.6781292256774814</v>
       </c>
       <c r="L187" t="n">
         <v>2.206896551724138</v>
@@ -25613,7 +26261,7 @@
         <v>446</v>
       </c>
       <c r="C188" t="s">
-        <v>446</v>
+        <v>662</v>
       </c>
       <c r="D188" t="n">
         <v>0.375</v>
@@ -25637,7 +26285,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K188" t="n">
-        <v>0.5183013813232814</v>
+        <v>0.5183013813232815</v>
       </c>
       <c r="L188" t="n">
         <v>3.3714285714285714</v>
@@ -25742,7 +26390,7 @@
         <v>447</v>
       </c>
       <c r="C189" t="s">
-        <v>447</v>
+        <v>663</v>
       </c>
       <c r="D189" t="n">
         <v>0.23076923076923078</v>
@@ -25871,7 +26519,7 @@
         <v>448</v>
       </c>
       <c r="C190" t="s">
-        <v>448</v>
+        <v>664</v>
       </c>
       <c r="D190" t="n">
         <v>0.6666666666666666</v>
@@ -25895,7 +26543,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6516486685308227</v>
+        <v>0.6516486685308231</v>
       </c>
       <c r="L190" t="n">
         <v>3.3421052631578947</v>
@@ -26000,7 +26648,7 @@
         <v>449</v>
       </c>
       <c r="C191" t="s">
-        <v>449</v>
+        <v>665</v>
       </c>
       <c r="D191" t="n">
         <v>0.38461538461538464</v>
@@ -26024,7 +26672,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K191" t="n">
-        <v>0.5962224495910051</v>
+        <v>0.596222449591005</v>
       </c>
       <c r="L191" t="n">
         <v>1.6785714285714286</v>
@@ -26129,7 +26777,7 @@
         <v>450</v>
       </c>
       <c r="C192" t="s">
-        <v>450</v>
+        <v>666</v>
       </c>
       <c r="D192" t="n">
         <v>0.47368421052631576</v>
@@ -26153,7 +26801,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7917764071627924</v>
+        <v>0.7917764071627921</v>
       </c>
       <c r="L192" t="n">
         <v>1.9411764705882353</v>
@@ -26258,7 +26906,7 @@
         <v>451</v>
       </c>
       <c r="C193" t="s">
-        <v>451</v>
+        <v>667</v>
       </c>
       <c r="D193" t="n">
         <v>-0.21428571428571427</v>
@@ -26282,7 +26930,7 @@
         <v>0.547008547008547</v>
       </c>
       <c r="K193" t="n">
-        <v>0.6399873791912952</v>
+        <v>0.6399873791912948</v>
       </c>
       <c r="L193" t="n">
         <v>6.049180327868853</v>
@@ -26387,7 +27035,7 @@
         <v>452</v>
       </c>
       <c r="C194" t="s">
-        <v>452</v>
+        <v>668</v>
       </c>
       <c r="D194" t="n">
         <v>0.21428571428571427</v>
@@ -26411,7 +27059,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K194" t="n">
-        <v>0.617676172468797</v>
+        <v>0.6176761724687961</v>
       </c>
       <c r="L194" t="n">
         <v>1.95</v>
@@ -26516,7 +27164,7 @@
         <v>453</v>
       </c>
       <c r="C195" t="s">
-        <v>453</v>
+        <v>669</v>
       </c>
       <c r="D195" t="n">
         <v>0.5</v>
@@ -26540,7 +27188,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K195" t="n">
-        <v>0.6204496518746373</v>
+        <v>0.620449651874637</v>
       </c>
       <c r="L195" t="n">
         <v>1.9</v>
@@ -26645,7 +27293,7 @@
         <v>454</v>
       </c>
       <c r="C196" t="s">
-        <v>454</v>
+        <v>670</v>
       </c>
       <c r="D196" t="n">
         <v>-0.38461538461538464</v>
@@ -26669,7 +27317,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K196" t="n">
-        <v>0.5979708817508215</v>
+        <v>0.5979708817508216</v>
       </c>
       <c r="L196" t="n">
         <v>2.64</v>
@@ -26774,7 +27422,7 @@
         <v>455</v>
       </c>
       <c r="C197" t="s">
-        <v>455</v>
+        <v>671</v>
       </c>
       <c r="D197" t="n">
         <v>0.3333333333333333</v>
@@ -26798,7 +27446,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K197" t="n">
-        <v>0.6813106699907031</v>
+        <v>0.681310669990703</v>
       </c>
       <c r="L197" t="n">
         <v>1.631578947368421</v>
@@ -26901,7 +27549,7 @@
         <v>456</v>
       </c>
       <c r="C198" t="s">
-        <v>456</v>
+        <v>672</v>
       </c>
       <c r="D198" t="n">
         <v>0.3076923076923077</v>
@@ -26925,7 +27573,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K198" t="n">
-        <v>0.5802094782772226</v>
+        <v>0.5802094782772227</v>
       </c>
       <c r="L198" t="n">
         <v>1.7857142857142858</v>
@@ -27030,7 +27678,7 @@
         <v>457</v>
       </c>
       <c r="C199" t="s">
-        <v>457</v>
+        <v>673</v>
       </c>
       <c r="D199" t="n">
         <v>0.23076923076923078</v>
@@ -27054,7 +27702,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5462159949252695</v>
+        <v>0.5462159949252697</v>
       </c>
       <c r="L199" t="n">
         <v>3.2413793103448274</v>
@@ -27159,7 +27807,7 @@
         <v>458</v>
       </c>
       <c r="C200" t="s">
-        <v>458</v>
+        <v>674</v>
       </c>
       <c r="D200" t="n">
         <v>0.9090909090909091</v>
@@ -27183,7 +27831,7 @@
         <v>0.6733333333333333</v>
       </c>
       <c r="K200" t="n">
-        <v>0.6189101001411753</v>
+        <v>0.6189101001411758</v>
       </c>
       <c r="L200" t="n">
         <v>3.5</v>
@@ -27288,7 +27936,7 @@
         <v>459</v>
       </c>
       <c r="C201" t="s">
-        <v>459</v>
+        <v>675</v>
       </c>
       <c r="D201" t="n">
         <v>-0.07692307692307693</v>
@@ -27312,7 +27960,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K201" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L201" t="n">
         <v>2.0</v>
@@ -27417,7 +28065,7 @@
         <v>460</v>
       </c>
       <c r="C202" t="s">
-        <v>460</v>
+        <v>676</v>
       </c>
       <c r="D202" t="n">
         <v>0.3</v>
@@ -27441,7 +28089,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K202" t="n">
-        <v>0.6536855299290222</v>
+        <v>0.653685529929022</v>
       </c>
       <c r="L202" t="n">
         <v>1.5</v>
@@ -27546,7 +28194,7 @@
         <v>461</v>
       </c>
       <c r="C203" t="s">
-        <v>461</v>
+        <v>677</v>
       </c>
       <c r="D203" t="n">
         <v>-0.07142857142857142</v>
@@ -27570,7 +28218,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6111111111111115</v>
       </c>
       <c r="L203" t="n">
         <v>2.0</v>
@@ -27675,7 +28323,7 @@
         <v>462</v>
       </c>
       <c r="C204" t="s">
-        <v>462</v>
+        <v>678</v>
       </c>
       <c r="D204" t="n">
         <v>0.38461538461538464</v>
@@ -27804,7 +28452,7 @@
         <v>463</v>
       </c>
       <c r="C205" t="s">
-        <v>463</v>
+        <v>679</v>
       </c>
       <c r="D205" t="n">
         <v>-0.6153846153846154</v>
@@ -27828,7 +28476,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K205" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L205" t="n">
         <v>1.6</v>
@@ -27933,7 +28581,7 @@
         <v>464</v>
       </c>
       <c r="C206" t="s">
-        <v>464</v>
+        <v>680</v>
       </c>
       <c r="D206" t="n">
         <v>0.0</v>
@@ -27957,7 +28605,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K206" t="n">
-        <v>0.6684156331758152</v>
+        <v>0.6684156331758153</v>
       </c>
       <c r="L206" t="n">
         <v>1.7272727272727273</v>
@@ -28062,7 +28710,7 @@
         <v>465</v>
       </c>
       <c r="C207" t="s">
-        <v>465</v>
+        <v>681</v>
       </c>
       <c r="D207" t="n">
         <v>-0.38461538461538464</v>
@@ -28086,7 +28734,7 @@
         <v>0.6224747474747475</v>
       </c>
       <c r="K207" t="n">
-        <v>0.6337679448704807</v>
+        <v>0.6337679448704804</v>
       </c>
       <c r="L207" t="n">
         <v>1.6153846153846154</v>
@@ -28191,7 +28839,7 @@
         <v>466</v>
       </c>
       <c r="C208" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="D208" t="n">
         <v>0.7692307692307693</v>
@@ -28215,7 +28863,7 @@
         <v>0.6837121212121212</v>
       </c>
       <c r="K208" t="n">
-        <v>0.653163381795098</v>
+        <v>0.6531633817950978</v>
       </c>
       <c r="L208" t="n">
         <v>1.5238095238095237</v>
@@ -28320,7 +28968,7 @@
         <v>467</v>
       </c>
       <c r="C209" t="s">
-        <v>467</v>
+        <v>683</v>
       </c>
       <c r="D209" t="n">
         <v>0.0</v>
@@ -28344,7 +28992,7 @@
         <v>0.52465483234714</v>
       </c>
       <c r="K209" t="n">
-        <v>0.7002847398183253</v>
+        <v>0.7002847398183252</v>
       </c>
       <c r="L209" t="n">
         <v>1.793103448275862</v>
@@ -28449,7 +29097,7 @@
         <v>468</v>
       </c>
       <c r="C210" t="s">
-        <v>468</v>
+        <v>684</v>
       </c>
       <c r="D210" t="n">
         <v>0.3076923076923077</v>
@@ -28473,7 +29121,7 @@
         <v>0.37247474747474746</v>
       </c>
       <c r="K210" t="n">
-        <v>0.583906988326783</v>
+        <v>0.5839069883267832</v>
       </c>
       <c r="L210" t="n">
         <v>1.7727272727272727</v>
@@ -28578,7 +29226,7 @@
         <v>469</v>
       </c>
       <c r="C211" t="s">
-        <v>469</v>
+        <v>685</v>
       </c>
       <c r="D211" t="n">
         <v>0.46153846153846156</v>
@@ -28602,7 +29250,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K211" t="n">
-        <v>0.608472649456382</v>
+        <v>0.6084726494563821</v>
       </c>
       <c r="L211" t="n">
         <v>1.4090909090909092</v>
@@ -28707,7 +29355,7 @@
         <v>470</v>
       </c>
       <c r="C212" t="s">
-        <v>470</v>
+        <v>686</v>
       </c>
       <c r="D212" t="n">
         <v>0.42857142857142855</v>
@@ -28836,7 +29484,7 @@
         <v>471</v>
       </c>
       <c r="C213" t="s">
-        <v>471</v>
+        <v>687</v>
       </c>
       <c r="D213" t="n">
         <v>1.5</v>
@@ -28860,7 +29508,7 @@
         <v>0.8037475345167653</v>
       </c>
       <c r="K213" t="n">
-        <v>0.79874466429495</v>
+        <v>0.7987446642949498</v>
       </c>
       <c r="L213" t="n">
         <v>1.6486486486486487</v>
@@ -28965,7 +29613,7 @@
         <v>472</v>
       </c>
       <c r="C214" t="s">
-        <v>472</v>
+        <v>688</v>
       </c>
       <c r="D214" t="n">
         <v>0.9333333333333333</v>
@@ -28989,7 +29637,7 @@
         <v>0.706828885400314</v>
       </c>
       <c r="K214" t="n">
-        <v>0.7465589852152263</v>
+        <v>0.7465589852152268</v>
       </c>
       <c r="L214" t="n">
         <v>2.71875</v>
@@ -29094,7 +29742,7 @@
         <v>473</v>
       </c>
       <c r="C215" t="s">
-        <v>473</v>
+        <v>689</v>
       </c>
       <c r="D215" t="n">
         <v>0.5384615384615384</v>
@@ -29118,7 +29766,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K215" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L215" t="n">
         <v>1.8181818181818181</v>
@@ -29223,7 +29871,7 @@
         <v>474</v>
       </c>
       <c r="C216" t="s">
-        <v>474</v>
+        <v>690</v>
       </c>
       <c r="D216" t="n">
         <v>0.08333333333333333</v>
@@ -29247,7 +29895,7 @@
         <v>0.5256198347107438</v>
       </c>
       <c r="K216" t="n">
-        <v>0.6551138098567636</v>
+        <v>0.6551138098567635</v>
       </c>
       <c r="L216" t="n">
         <v>1.1428571428571428</v>
@@ -29352,7 +30000,7 @@
         <v>475</v>
       </c>
       <c r="C217" t="s">
-        <v>475</v>
+        <v>691</v>
       </c>
       <c r="D217" t="n">
         <v>0.3076923076923077</v>
@@ -29376,7 +30024,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K217" t="n">
-        <v>0.4993325464661074</v>
+        <v>0.499332546466107</v>
       </c>
       <c r="L217" t="n">
         <v>4.206896551724138</v>
